--- a/Dataset/Folds/Fold_5/Excel/20.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/20.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9865" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11065" uniqueCount="1653">
   <si>
     <t>Doi</t>
   </si>
@@ -5133,6 +5133,521 @@
   </si>
   <si>
     <t>[César%Caraballo%NULL%0,                          Megan%McCullough%NULL%0,                          Megan%McCullough%NULL%0,                          Michael A.%Fuery%NULL%0,                          Fouad%Chouairi%NULL%0,                          Fouad%Chouairi%NULL%0,                          Craig%Keating%NULL%0,                          Neal G.%Ravindra%NULL%0,                          P. Elliott%Miller%NULL%0,                          Maricar%Malinis%NULL%0,                          Nitu%Kashyap%NULL%0,                          Allen%Hsiao%NULL%0,                          F. Perry%Wilson%NULL%0,                          Jeptha P.%Curtis%NULL%0,                          Matthew%Grant%NULL%0,                          Eric J.%Velazquez%NULL%0,                          Nihar R.%Desai%NULL%0,                          Tariq%Ahmad%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0,                          Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                           Samuel L%Bruce%NULL%1,                           Cody L%Slater%NULL%1,                           Jonathan R%Tiao%NULL%1,                           Matthew R%Baldwin%NULL%1,                           R Graham%Barr%NULL%1,                           Bernard P%Chang%NULL%1,                           Katherine H%Chau%NULL%1,                           Justin J%Choi%NULL%1,                           Nicholas%Gavin%NULL%1,                           Parag%Goyal%NULL%1,                           Angela M%Mills%NULL%1,                           Ashmi A%Patel%NULL%1,                           Marie-Laure S%Romney%NULL%1,                           Monika M%Safford%NULL%1,                           Neil W%Schluger%NULL%1,                           Soumitra%Sengupta%NULL%1,                           Magdalena E%Sobieszczyk%NULL%1,                           Jason E%Zucker%NULL%1,                           Paul A%Asadourian%NULL%1,                           Fletcher M%Bell%NULL%1,                           Rebekah%Boyd%NULL%1,                           Matthew F%Cohen%NULL%1,                           MacAlistair I%Colquhoun%NULL%1,                           Lucy A%Colville%NULL%1,                           Joseph H%de Jonge%NULL%1,                           Lyle B%Dershowitz%NULL%1,                           Shirin A%Dey%NULL%1,                           Katherine A%Eiseman%NULL%1,                           Zachary P%Girvin%NULL%1,                           Daniella T%Goni%NULL%1,                           Amro A%Harb%NULL%1,                           Nicholas%Herzik%NULL%1,                           Sarah%Householder%NULL%1,                           Lara E%Karaaslan%NULL%1,                           Heather%Lee%NULL%1,                           Evan%Lieberman%NULL%1,                           Andrew%Ling%NULL%1,                           Ree%Lu%NULL%1,                           Arthur Y%Shou%NULL%1,                           Alexander C%Sisti%NULL%1,                           Zachary E%Snow%NULL%1,                           Colin P%Sperring%NULL%1,                           Yuqing%Xiong%NULL%1,                           Henry W%Zhou%NULL%1,                           Karthik%Natarajan%NULL%1,                           George%Hripcsak%NULL%1,                           Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                           Megan%McCullough%NULL%4,                           Megan%McCullough%NULL%0,                           Michael A.%Fuery%NULL%2,                           Fouad%Chouairi%NULL%4,                           Fouad%Chouairi%NULL%0,                           Craig%Keating%NULL%2,                           Neal G.%Ravindra%NULL%2,                           P. Elliott%Miller%NULL%2,                           Maricar%Malinis%NULL%2,                           Nitu%Kashyap%NULL%2,                           Allen%Hsiao%NULL%2,                           F. Perry%Wilson%NULL%2,                           Jeptha P.%Curtis%NULL%2,                           Matthew%Grant%NULL%2,                           Eric J.%Velazquez%NULL%2,                           Nihar R.%Desai%NULL%2,                           Tariq%Ahmad%NULL%2,                           Chiara%Lazzeri%NULL%18,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%2,                           Karen K.%Wong%NULL%1,                           Christine M.%Szablewski%NULL%1,                           Priti R.%Patel%NULL%1,                           John%Rossow%NULL%1,                           Juliana%da Silva%NULL%1,                           Pavithra%Natarajan%NULL%1,                           Sapna Bamrah%Morris%NULL%1,                           Robyn Neblett%Fanfair%NULL%1,                           Jessica%Rogers-Brown%NULL%1,                           Beau B.%Bruce%NULL%1,                           Sean D.%Browning%NULL%1,                           Alfonso C.%Hernandez-Romieu%NULL%2,                           Nathan W.%Furukawa%NULL%1,                           Mohleen%Kang%NULL%1,                           Mary E.%Evans%NULL%1,                           Nadine%Oosmanally%NULL%1,                           Melissa%Tobin-D’Angelo%NULL%1,                           Cherie%Drenzek%NULL%1,                           David J.%Murphy%NULL%0,                           Julie%Hollberg%NULL%1,                           James M.%Blum%NULL%0,                           Robert%Jansen%NULL%1,                           David W.%Wright%NULL%1,                           William M.%Sewell%NULL%1,                           Jack D.%Owens%NULL%1,                           Benjamin%Lefkove%NULL%1,                           Frank W.%Brown%NULL%1,                           Deron C.%Burton%NULL%1,                           Timothy M.%Uyeki%NULL%3,                           Stephanie R.%Bialek%NULL%1,                           Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                           Jasmine A.%Mack%NULL%1,                           Maxwell%Salvatore%NULL%1,                           Swaraaj Prabhu%Sankar%NULL%1,                           Thomas S.%Valley%NULL%1,                           Karandeep%Singh%NULL%1,                           Brahmajee K.%Nallamothu%NULL%1,                           Sachin%Kheterpal%NULL%1,                           Lynda%Lisabeth%NULL%1,                           Lars G.%Fritsche%NULL%1,                           Bhramar%Mukherjee%NULL%1,                            T.%Gu%null%1,                            J. A.% Mack%null%1,                            M.% Salvatore%null%1,                            S. P.% Sankar%null%1,                            T. S.% Valley%null%1,                            K.% Singh%null%1,                            B. K.% Nallamothu%null%1,                            S.% Kheterpal%null%1,                            L.% Lisabeth%null%1,                            L. G.% Fritsche%null%1,                            B. G. % Mukherjee%null%1,                           T.%Gu%null%1,                           J. A.% Mack%null%1,                           M.% Salvatore%null%1,                           S. P.% Sankar%null%1,                           T. S.% Valley%null%1,                           K.% Singh%null%1,                           B. K.% Nallamothu%null%1,                           S.% Kheterpal%null%1,                           L.% Lisabeth%null%1,                           L. G.% Fritsche%null%1,                           B. G. % Mukherjee%null%1,          T.%Gu%null%1,          J. A.% Mack%null%1,          M.% Salvatore%null%1,          S. P.% Sankar%null%1,          T. S.% Valley%null%1,          K.% Singh%null%1,          B. K.% Nallamothu%null%1,          S.% Kheterpal%null%1,          L.% Lisabeth%null%1,          L. G.% Fritsche%null%1,          B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                           Shikha%Garg%NULL%1,                           Alissa%O’Halloran%NULL%1,                           Michael%Whitaker%NULL%1,                           Huong%Pham%NULL%1,                           Evan J%Anderson%NULL%1,                           Isaac%Armistead%NULL%1,                           Nancy M%Bennett%NULL%1,                           Laurie%Billing%NULL%1,                           Kathryn%Como-Sabetti%NULL%1,                           Mary%Hill%NULL%1,                           Sue%Kim%NULL%1,                           Maya L%Monroe%NULL%1,                           Alison%Muse%NULL%1,                           Arthur L%Reingold%NULL%1,                           William%Schaffner%NULL%1,                           Melissa%Sutton%NULL%1,                           H Keipp%Talbot%NULL%1,                           Salina M%Torres%NULL%1,                           Kimberly%Yousey-Hindes%NULL%1,                           Rachel%Holstein%NULL%1,                           Charisse%Cummings%NULL%1,                           Lynette%Brammer%NULL%1,                           Aron J%Hall%NULL%1,                           Alicia M%Fry%NULL%1,                           Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                           Jienchi%Dorward%NULL%1,                           Ana%Correa%NULL%1,                           Nicholas%Jones%NULL%1,                           Oluwafunmi%Akinyemi%NULL%1,                           Gayatri%Amirthalingam%NULL%1,                           Nick%Andrews%NULL%1,                           Rachel%Byford%NULL%1,                           Gavin%Dabrera%NULL%1,                           Alex%Elliot%NULL%1,                           Joanna%Ellis%NULL%0,                           Filipa%Ferreira%NULL%1,                           Jamie%Lopez Bernal%NULL%1,                           Cecilia%Okusi%NULL%1,                           Mary%Ramsay%NULL%1,                           Julian%Sherlock%NULL%1,                           Gillian%Smith%NULL%1,                           John%Williams%NULL%1,                           Gary%Howsam%NULL%1,                           Maria%Zambon%NULL%0,                           Mark%Joy%NULL%1,                           F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                           Johanna%Dolle%NULL%2,                           Johanna%Dolle%NULL%0,                           Sheila%Grami%NULL%1,                           Richard%Adule%NULL%1,                           Zeyu%Li%NULL%1,                           Kathleen%Tatem%NULL%1,                           Chinyere%Anyaogu%NULL%1,                           Stephen%Apfelroth%NULL%1,                           Raji%Ayinla%NULL%2,                           Raji%Ayinla%NULL%0,                           Noella%Boma%NULL%1,                           Terence%Brady%NULL%1,                           Braulio F.%Cosme-Thormann%NULL%1,                           Roseann%Costarella%NULL%1,                           Kenra%Ford%NULL%1,                           Kecia%Gaither%NULL%1,                           Jessica%Jacobson%NULL%1,                           Marc%Kanter%NULL%1,                           Stuart%Kessler%NULL%1,                           Ross B.%Kristal%NULL%1,                           Joseph J.%Lieber%NULL%1,                           Vikramjit%Mukherjee%NULL%1,                           Vincent%Rizzo%NULL%1,                           Madden%Rowell%NULL%1,                           David%Stevens%NULL%1,                           Elana%Sydney%NULL%1,                           Andrew%Wallach%NULL%2,                           Andrew%Wallach%NULL%0,                           Dave A.%Chokshi%NULL%1,                           Nichola%Davis%NULL%1,                           NULL%NULL%NULL%0,                           Sze Yan%Liu%NULL%2,                           Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                           Mark%Caridi-Scheible%NULL%0,                           James M.%Blum%NULL%0,                           Chad%Robichaux%NULL%1,                           Colleen%Kraft%NULL%1,                           Jesse T.%Jacob%NULL%1,                           Craig S.%Jabaley%NULL%0,                           David%Carpenter%NULL%1,                           Roberta%Kaplow%NULL%1,                           Alfonso C.%Hernandez-Romieu%NULL%0,                           Max W.%Adelman%NULL%0,                           Greg S.%Martin%NULL%0,                           Craig M.%Coopersmith%NULL%1,                           David J.%Murphy%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                           David R.%Jenkins%NULL%1,                           Jatinder S.%Minhas%NULL%1,                           Laura J.%Gray%NULL%1,                           Julian%Tang%NULL%1,                           Caroline%Williams%NULL%1,                           Shirley%Sze%NULL%1,                           Daniel%Pan%NULL%1,                           William%Jones%NULL%1,                           Raman%Verma%NULL%1,                           Scott%Knapp%NULL%1,                           Rupert%Major%NULL%1,                           Melanie%Davies%NULL%1,                           Nigel%Brunskill%NULL%1,                           Martin%Wiselka%NULL%1,                           Chris%Brightling%NULL%1,                           Kamlesh%Khunti%NULL%1,                           Pranab%Haldar%NULL%1,                           Manish%Pareek%mp426@le.ac.uk%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                           Kelly E%Hathorn%NULL%2,                           Kelly E%Hathorn%NULL%0,                           Walker D%Redd%NULL%1,                           Nicolette J%Rodriguez%NULL%1,                           Joyce C%Zhou%NULL%1,                           Ahmad Najdat%Bazarbashi%NULL%1,                           Cheikh%Njie%NULL%1,                           Danny%Wong%NULL%1,                           Quoc-Dien%Trinh%NULL%1,                           Lin%Shen%NULL%1,                           Valerie E%Stone%NULL%2,                           Valerie E%Stone%NULL%0,                           Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                           Thomas E.%Webb%NULL%2,                           Thomas E.%Webb%NULL%0,                           Benjamin C.%Mcloughlin%NULL%2,                           Benjamin C.%Mcloughlin%NULL%0,                           Imran%Mannan%NULL%2,                           Imran%Mannan%NULL%0,                           Arshad%Rather%NULL%2,                           Arshad%Rather%NULL%0,                           Paul%Knopp%NULL%1,                           Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                           Rajat%Suri%NULL%2,                           Rajat%Suri%NULL%0,                           Iheanacho O.%Emeruwa%NULL%2,                           Iheanacho O.%Emeruwa%NULL%0,                           Robert J.%Stretch%NULL%1,                           Roxana Y.%Cortes-Lopez%NULL%2,                           Roxana Y.%Cortes-Lopez%NULL%0,                           Alexander%Sherman%NULL%1,                           Catherine C.%Lindsay%NULL%1,                           Jennifer A.%Fulcher%NULL%1,                           David%Goodman-Meza%NULL%2,                           David%Goodman-Meza%NULL%0,                           Anil%Sapru%NULL%2,                           Anil%Sapru%NULL%0,                           Russell G.%Buhr%NULL%1,                           Steven Y.%Chang%NULL%2,                           Steven Y.%Chang%NULL%0,                           Tisha%Wang%NULL%1,                           Nida%Qadir%NULL%1,                           Giordano%Madeddu%NULL%8,                           Giordano%Madeddu%NULL%0,                           Giordano%Madeddu%NULL%0,                           Ana C.%Monteiro%NULL%2,                           Ana C.%Monteiro%NULL%0,                           Giordano%Madeddu%NULL%0,                           Giordano%Madeddu%NULL%0,                           Giordano%Madeddu%NULL%0,                           Giordano%Madeddu%NULL%0,                           Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                           Catherine A.%O’Donnell%NULL%2,                           Bhautesh Dinesh%Jani%NULL%1,                           Evangelia%Demou%NULL%1,                           Frederick K.%Ho%NULL%1,                           Carlos%Celis-Morales%NULL%1,                           Barbara I.%Nicholl%NULL%1,                           Frances S.%Mair%NULL%2,                           Paul%Welsh%NULL%2,                           Naveed%Sattar%NULL%2,                           Jill P.%Pell%NULL%2,                           S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                           Alex J%Walker%NULL%1,                           Krishnan%Bhaskaran%NULL%1,                           Seb%Bacon%NULL%1,                           Chris%Bates%NULL%1,                           Caroline E%Morton%NULL%1,                           Helen J%Curtis%NULL%1,                           Amir%Mehrkar%NULL%1,                           David%Evans%NULL%1,                           Peter%Inglesby%NULL%1,                           Jonathan%Cockburn%NULL%1,                           Helen I%McDonald%NULL%1,                           Brian%MacKenna%NULL%1,                           Laurie%Tomlinson%NULL%1,                           Ian J%Douglas%NULL%1,                           Christopher T%Rentsch%NULL%1,                           Rohini%Mathur%NULL%1,                           Angel YS%Wong%NULL%1,                           Richard%Grieve%NULL%1,                           David%Harrison%NULL%1,                           Harriet%Forbes%NULL%1,                           Anna%Schultze%NULL%2,                           Richard%Croker%NULL%1,                           John%Parry%NULL%1,                           Frank%Hester%NULL%1,                           Sam%Harper%NULL%1,                           Rafael%Perera%NULL%1,                           Stephen JW%Evans%NULL%1,                           Liam%Smeeth%NULL%1,                           Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                           Ajay%Bhasin%NULL%1,                           Joseph M.%Feinglass%NULL%1,                           Michael P.%Angarone%NULL%1,                           Elaine R.%Cohen%NULL%1,                           Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                           Andrew%Gangemi%NULL%1,                           Robert%Marron%NULL%1,                           Junad%Chowdhury%NULL%1,                           Ibraheem%Yousef%NULL%1,                           Matthew%Zheng%NULL%1,                           Nicole%Mills%NULL%1,                           Lauren%Tragesser%NULL%1,                           Julie%Giurintano%NULL%1,                           Rohit%Gupta%NULL%0,                           Matthew%Gordon%NULL%0,                           Parth%Rali%NULL%2,                           Parth%Rali%NULL%0,                           Gilbert%D'Alonso%NULL%1,                           David%Fleece%NULL%1,                           Huaqing%Zhao%NULL%0,                           Nicole%Patlakh%NULL%0,                           Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                           Nathan C.%Skorodin%nskorodin@midcusa.com%1,                           Nicholas W.%Van Hise%NULL%1,                           Robert M.%Fliegelman%NULL%1,                           Jonathan%Pinsky%NULL%1,                           Vishal%Didwania%NULL%1,                           Michael%Anderson%NULL%1,                           Melina%Diaz%NULL%1,                           Kairav%Shah%NULL%1,                           Vishnu V.%Chundi%NULL%1,                           David W.%Hines%NULL%1,                           Brian P.%Harting%NULL%1,                           Kamo%Sidwha%NULL%1,                           Brian%Yu%NULL%1,                           Paul%Brune%NULL%1,                           Anjum%Owaisi%NULL%1,                           David%Beezhold%NULL%1,                           Joseph%Kent%NULL%1,                           Dana%Vais%NULL%1,                           Alice%Han%NULL%1,                           Neethi%Gowda%NULL%1,                           Nishi%Sahgal%NULL%1,                           Jan%Silverman%NULL%1,                           Jonathan%Stake%NULL%1,                           Jenie%Nepomuceno%NULL%1,                           Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                           Anna%Daunt%NULL%2,                           Anna%Daunt%NULL%0,                           Sujit%Mukherjee%NULL%1,                           Peter%Crook%NULL%1,                           Roberta%Forlano%NULL%1,                           Mara D%Kont%NULL%1,                           Alessandra%Løchen%NULL%1,                           Michaela%Vollmer%NULL%1,                           Paul%Middleton%NULL%1,                           Rebekah%Judge%NULL%1,                           Christopher%Harlow%NULL%1,                           Anet%Soubieres%NULL%1,                           Graham%Cooke%NULL%1,                           Peter J%White%NULL%1,                           Timothy B%Hallett%NULL%1,                           Paul%Aylin%NULL%1,                           Neil%Ferguson%NULL%1,                           Katharina%Hauck%NULL%1,                           Mark R%Thursz%NULL%1,                           Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                           Jeffrey%Burton%NULL%2,                           Jeffrey%Burton%NULL%0,                           Daniel%Fort%NULL%1,                           Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                           Michael S.%Sherman%NULL%1,                           Naaz%Fatteh%NULL%1,                           Fabio%Vogel%NULL%1,                           Jamie%Sacks%NULL%1,                           Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                           Farah%Kidwai-Khan%NULL%1,                           Janet P.%Tate%NULL%1,                           Lesley S.%Park%NULL%1,                           Joseph T.%King%NULL%1,                           Melissa%Skanderson%NULL%1,                           Ronald G.%Hauser%NULL%1,                           Anna%Schultze%NULL%0,                           Christopher I.%Jarvis%NULL%1,                           Mark%Holodniy%NULL%1,                           Vincent Lo%Re%NULL%1,                           Kathleen M.%Akgün%NULL%1,                           Kristina%Crothers%NULL%1,                           Tamar H.%Taddei%NULL%1,                           Matthew S.%Freiberg%NULL%1,                           Amy C.%Justice%NULL%1,                            C. T.%Rentsch%null%1,                            F.% Kidwai-Khan%null%1,                            J. P.% Tate%null%1,                            L. S.% Park%null%1,                            J. T.% King%null%1,                            M.% Skanderson%null%1,                            R. G.% Hauser%null%1,                            A.% Schultze%null%1,                            C. I.% Jarvis%null%1,                            M.% Holodniy%null%1,                            V.% Lo Re%null%1,                            K. M.% Akgun%null%1,                            K.% Crothers%null%1,                            T. H.% Taddei%null%1,                            M. S.% Freiberg%null%1,                            A. C. % Justice%null%1,                           C. T.%Rentsch%null%1,                           F.% Kidwai-Khan%null%1,                           J. P.% Tate%null%1,                           L. S.% Park%null%1,                           J. T.% King%null%1,                           M.% Skanderson%null%1,                           R. G.% Hauser%null%1,                           A.% Schultze%null%1,                           C. I.% Jarvis%null%1,                           M.% Holodniy%null%1,                           V.% Lo Re%null%1,                           K. M.% Akgun%null%1,                           K.% Crothers%null%1,                           T. H.% Taddei%null%1,                           M. S.% Freiberg%null%1,                           A. C. % Justice%null%1,          C. T.%Rentsch%null%1,          F.% Kidwai-Khan%null%1,          J. P.% Tate%null%1,          L. S.% Park%null%1,          J. T.% King%null%1,          M.% Skanderson%null%1,          R. G.% Hauser%null%1,          A.% Schultze%null%1,          C. I.% Jarvis%null%1,          M.% Holodniy%null%1,          V.% Lo Re%null%1,          K. M.% Akgun%null%1,          K.% Crothers%null%1,          T. H.% Taddei%null%1,          M. S.% Freiberg%null%1,          A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                           Jennifer%Beam%NULL%2,                           Jennifer%Beam%NULL%0,                           Haley%Maier%NULL%1,                           Whitney%Haggerson%NULL%1,                           Karen%Boudreau%NULL%1,                           Jamie%Carlson%NULL%1,                           Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                           Alexander E.%Ayala%NULL%1,                           Chideraa C.%Ukeje%NULL%1,                           Celeste S.%Witting%NULL%1,                           William A.%Grobman%NULL%1,                           Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                           Hannah C.%Jarvis%NULL%2,                           Hannah C.%Jarvis%NULL%0,                           Ezgi%Ozcan%NULL%1,                           Thomas L. P.%Burns%NULL%1,                           Rabia A.%Warraich%NULL%1,                           Lisa J.%Amani%NULL%1,                           Amina%Jaffer%NULL%1,                           Stephanie%Paget%NULL%1,                           Anand%Sivaramakrishnan%NULL%1,                           Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                           Suzy%Gallier%NULL%2,                           Suzy%Gallier%NULL%0,                           Chris%Mainey%NULL%1,                           Peter%Nightingale%NULL%2,                           Peter%Nightingale%NULL%0,                           David%McNulty%NULL%1,                           Hannah%Crothers%NULL%1,                           Felicity%Evison%NULL%1,                           Katharine%Reeves%NULL%1,                           Domenico%Pagano%NULL%1,                           Alastair K%Denniston%NULL%1,                           Krishnarajah%Nirantharakumar%NULL%1,                           Peter%Diggle%NULL%1,                           Simon%Ball%NULL%1,                           Lylah%Irshad%NULL%1,                           Maxim%Harris%NULL%1,                           Theodore%Nabav%NULL%1,                           A%Kolesnyk%NULL%1,                           M%Ahmed%NULL%1,                           A%Liaqat%NULL%1,                           Tanya%Pankhurst%NULL%1,                           Jamie%Coleman%NULL%1,                           Chirag%Dave%NULL%1,                           Khaled%ElFandi%NULL%1,                           Rifat%Rashid%NULL%1,                           Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                           Gregory A%Eschenauer%NULL%2,                           Gregory A%Eschenauer%NULL%0,                           Jonathan P%Troost%NULL%1,                           Jonathan L%Golob%NULL%1,                           Tejal N%Gandhi%NULL%1,                           Lu%Wang%NULL%1,                           Nina%Zhou%NULL%1,                           Lindsay A%Petty%NULL%1,                           Ji Hoon%Baang%NULL%1,                           Nicholas O%Dillman%NULL%1,                           David%Frame%NULL%1,                           Kevin S%Gregg%NULL%1,                           Dan R%Kaul%NULL%1,                           Jerod%Nagel%NULL%1,                           Twisha S%Patel%NULL%1,                           Shiwei%Zhou%NULL%1,                           Adam S%Lauring%NULL%1,                           David A%Hanauer%NULL%1,                           Emily%Martin%NULL%1,                           Pratima%Sharma%NULL%1,                           Christopher M%Fung%NULL%1,                           Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                           Lei%Qian%NULL%2,                           Lei%Qian%NULL%0,                           Vennis%Hong%NULL%1,                           Rong%Wei%NULL%2,                           Rong%Wei%NULL%0,                           Ron F.%Nadjafi%NULL%2,                           Ron F.%Nadjafi%NULL%0,                           Heidi%Fischer%NULL%1,                           Zhuoxin%Li%NULL%1,                           Sally F.%Shaw%NULL%1,                           Susan L.%Caparosa%NULL%2,                           Susan L.%Caparosa%NULL%0,                           Claudia L.%Nau%NULL%1,                           Tanmai%Saxena%NULL%1,                           Gunter K.%Rieg%NULL%1,                           Bradley K.%Ackerson%NULL%1,                           Adam L.%Sharp%NULL%2,                           Adam L.%Sharp%NULL%0,                           Jacek%Skarbinski%NULL%2,                           Jacek%Skarbinski%NULL%0,                           Tej K.%Naik%NULL%1,                           Sameer B.%Murali%NULL%2,                           Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                           Juan Carlos%Nicolas%NULL%2,                           Juan Carlos%Nicolas%NULL%0,                           Jennifer R%Meeks%NULL%1,                           Osman%Khan%NULL%1,                           Alan%Pan%NULL%1,                           Stephen L%Jones%NULL%1,                           Faisal%Masud%NULL%1,                           H Dirk%Sostman%NULL%1,                           Robert%Phillips%NULL%1,                           Julia D%Andrieni%NULL%1,                           Bita A%Kash%NULL%1,                           Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                           Arryn%Craney%NULL%1,                           Phyllis%Ruggiero%NULL%1,                           John%Sipley%NULL%1,                           Lin%Cong%NULL%1,                           Erika M.%Hissong%NULL%1,                           Massimo%Loda%NULL%1,                           Lars F.%Westblade%NULL%1,                           Melissa%Cushing%NULL%2,                           Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                           Amanda%Zheutlin%NULL%2,                           Amanda%Zheutlin%NULL%0,                           Yu-Han%Kao%NULL%1,                           Kristin%Ayers%NULL%1,                           Susan%Gross%NULL%1,                           Patricia%Kovatch%NULL%1,                           Sharon%Nirenberg%NULL%1,                           Alexander%Charney%NULL%1,                           Girish%Nadkarni%NULL%1,                           Jessica K%De Freitas%NULL%1,                           Paul%O’Reilly%NULL%1,                           Allan%Just%NULL%1,                           Carol%Horowitz%NULL%1,                           Glenn%Martin%NULL%1,                           Andrea%Branch%NULL%1,                           Benjamin S%Glicksberg%NULL%1,                           Dennis%Charney%NULL%1,                           David%Reich%NULL%1,                           William K%Oh%NULL%1,                           Eric%Schadt%NULL%1,                           Rong%Chen%NULL%0,                           Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                           Angela%Winegar%NULL%1,                           Richard%Fogel%NULL%1,                           Mohamad%Fakih%NULL%1,                           Allison%Ottenbacher%NULL%1,                           Christine%Jesser%NULL%1,                           Angelo%Bufalino%NULL%1,                           Ren-Huai%Huang%NULL%1,                           Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                           Rebecca%Bendayan%NULL%0,                           Mark%Ashworth%NULL%1,                           Daniel M.%Bean%NULL%1,                           Hiten%Dodhia%NULL%1,                           Stevo%Durbaba%NULL%1,                           Kevin%O'Gallagher%NULL%1,                           Claire%Palmer%NULL%1,                           Vasa%Curcin%NULL%1,                           Elizabeth%Aitken%NULL%1,                           William%Bernal%NULL%1,                           Richard D.%Barker%NULL%1,                           Sam%Norton%NULL%1,                           Martin%Gulliford%NULL%1,                           James T.H.%Teo%NULL%0,                           James%Galloway%NULL%1,                           Richard J.B.%Dobson%NULL%0,                           Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                           Carina%Marquez%NULL%1,                           Emily%Crawford%NULL%1,                           James%Peng%NULL%1,                           Maya%Petersen%NULL%1,                           Daniel%Schwab%NULL%1,                           Joshua%Schwab%NULL%1,                           Jackie%Martinez%NULL%1,                           Diane%Jones%NULL%1,                           Douglas%Black%NULL%1,                           Monica%Gandhi%NULL%1,                           Andrew D%Kerkhoff%NULL%1,                           Vivek%Jain%NULL%1,                           Francesco%Sergi%NULL%1,                           Jon%Jacobo%NULL%1,                           Susana%Rojas%NULL%1,                           Valerie%Tulier-Laiwa%NULL%1,                           Tracy%Gallardo-Brown%NULL%1,                           Ayesha%Appa%NULL%1,                           Charles%Chiu%NULL%1,                           Mary%Rodgers%NULL%1,                           John%Hackett%NULL%1,                           NULL%NULL%NULL%0,                           Amy%Kistler%NULL%1,                           Samantha%Hao%NULL%1,                           Jack%Kamm%NULL%1,                           David%Dynerman%NULL%1,                           Joshua%Batson%NULL%1,                           Bryan%Greenhouse%NULL%1,                           Joe%DeRisi%NULL%1,                           Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                           Tiffany%Grimes%NULL%1,                           Peng%Li%NULL%1,                           Matthew%Might%NULL%1,                           Fernando%Ovalle%NULL%1,                           Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                           Natalie%Achamallah%NULL%1,                           Hongwei%Ji%NULL%1,                           Brian L.%Claggett%NULL%1,                           Nancy%Sun%NULL%1,                           Patrick%Botting%NULL%1,                           Trevor-Trung%Nguyen%NULL%1,                           Eric%Luong%NULL%1,                           Elizabeth H.%Kim%NULL%1,                           Eunice%Park%NULL%1,                           Yunxian%Liu%NULL%1,                           Ryan%Rosenberry%NULL%1,                           Yuri%Matusov%NULL%1,                           Steven%Zhao%NULL%1,                           Isabel%Pedraza%NULL%1,                           Tanzira%Zaman%NULL%1,                           Michael%Thompson%NULL%1,                           Koen%Raedschelders%NULL%1,                           Anders H.%Berg%NULL%2,                           Anders H.%Berg%NULL%0,                           Jonathan D.%Grein%NULL%1,                           Paul W.%Noble%NULL%1,                           Sumeet S.%Chugh%NULL%1,                           C. Noel%Bairey Merz%NULL%1,                           Eduardo%Marbán%NULL%1,                           Jennifer E.%Van Eyk%NULL%1,                           Scott D.%Solomon%NULL%1,                           Christine M.%Albert%NULL%1,                           Peter%Chen%NULL%1,                           Susan%Cheng%NULL%3,                           Yu Ru%Kou%NULL%8,                           Yu Ru%Kou%NULL%0,                           Yu Ru%Kou%NULL%0,                           Susan%Cheng%biodatacore@cshs.org%0,                           Susan%Cheng%biodatacore@cshs.org%0,                           Yu Ru%Kou%NULL%0,                           Yu Ru%Kou%NULL%0,                           Yu Ru%Kou%NULL%0,                           Yu Ru%Kou%NULL%0,                           Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                           Penelope%Strid%NULL%1,                           Van T.%Tong%NULL%1,                           Kate%Woodworth%NULL%1,                           Romeo R.%Galang%NULL%1,                           Laura D.%Zambrano%NULL%1,                           John%Nahabedian%NULL%1,                           Kayla%Anderson%NULL%1,                           Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                           Jacob%Fiksel%NULL%2,                           Jacob%Fiksel%NULL%0,                           John%Muschelli%NULL%2,                           John%Muschelli%NULL%0,                           Matthew L.%Robinson%NULL%2,                           Matthew L.%Robinson%NULL%0,                           Masoud%Rouhizadeh%NULL%2,                           Masoud%Rouhizadeh%NULL%0,                           Jamie%Perin%NULL%2,                           Jamie%Perin%NULL%0,                           Grant%Schumock%NULL%2,                           Grant%Schumock%NULL%0,                           Paul%Nagy%NULL%2,                           Paul%Nagy%NULL%0,                           Josh H.%Gray%NULL%2,                           Josh H.%Gray%NULL%0,                           Harsha%Malapati%NULL%2,                           Harsha%Malapati%NULL%0,                           Mariam%Ghobadi-Krueger%NULL%2,                           Mariam%Ghobadi-Krueger%NULL%0,                           Timothy M.%Niessen%NULL%1,                           Bo Soo%Kim%NULL%1,                           Peter M.%Hill%NULL%1,                           M. Shafeeq%Ahmed%NULL%1,                           Eric D.%Dobkin%NULL%1,                           Renee%Blanding%NULL%1,                           Jennifer%Abele%NULL%1,                           Bonnie%Woods%NULL%1,                           Kenneth%Harkness%NULL%1,                           David R.%Thiemann%NULL%1,                           Mary G.%Bowring%NULL%1,                           Aalok B.%Shah%NULL%2,                           Aalok B.%Shah%NULL%0,                           Mei-Cheng%Wang%NULL%1,                           Karen%Bandeen-Roche%NULL%1,                           Antony%Rosen%NULL%1,                           Scott L.%Zeger%NULL%2,                           Scott L.%Zeger%NULL%0,                           Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                           Megan%McCullough%NULL%0,                           Megan%McCullough%NULL%0,                           Michael A.%Fuery%NULL%0,                           Fouad%Chouairi%NULL%0,                           Fouad%Chouairi%NULL%0,                           Craig%Keating%NULL%0,                           Neal G.%Ravindra%NULL%0,                           P. Elliott%Miller%NULL%0,                           Maricar%Malinis%NULL%0,                           Nitu%Kashyap%NULL%0,                           Allen%Hsiao%NULL%0,                           F. Perry%Wilson%NULL%0,                           Jeptha P.%Curtis%NULL%0,                           Matthew%Grant%NULL%0,                           Eric J.%Velazquez%NULL%0,                           Nihar R.%Desai%NULL%0,                           Tariq%Ahmad%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0,                           Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%5,                            Samuel L%Bruce%NULL%1,                            Cody L%Slater%NULL%1,                            Jonathan R%Tiao%NULL%1,                            Matthew R%Baldwin%NULL%1,                            R Graham%Barr%NULL%1,                            Bernard P%Chang%NULL%1,                            Katherine H%Chau%NULL%1,                            Justin J%Choi%NULL%1,                            Nicholas%Gavin%NULL%1,                            Parag%Goyal%NULL%1,                            Angela M%Mills%NULL%1,                            Ashmi A%Patel%NULL%1,                            Marie-Laure S%Romney%NULL%1,                            Monika M%Safford%NULL%1,                            Neil W%Schluger%NULL%1,                            Soumitra%Sengupta%NULL%1,                            Magdalena E%Sobieszczyk%NULL%1,                            Jason E%Zucker%NULL%1,                            Paul A%Asadourian%NULL%1,                            Fletcher M%Bell%NULL%1,                            Rebekah%Boyd%NULL%1,                            Matthew F%Cohen%NULL%1,                            MacAlistair I%Colquhoun%NULL%1,                            Lucy A%Colville%NULL%1,                            Joseph H%de Jonge%NULL%1,                            Lyle B%Dershowitz%NULL%1,                            Shirin A%Dey%NULL%1,                            Katherine A%Eiseman%NULL%1,                            Zachary P%Girvin%NULL%1,                            Daniella T%Goni%NULL%1,                            Amro A%Harb%NULL%1,                            Nicholas%Herzik%NULL%1,                            Sarah%Householder%NULL%1,                            Lara E%Karaaslan%NULL%1,                            Heather%Lee%NULL%1,                            Evan%Lieberman%NULL%1,                            Andrew%Ling%NULL%1,                            Ree%Lu%NULL%1,                            Arthur Y%Shou%NULL%1,                            Alexander C%Sisti%NULL%1,                            Zachary E%Snow%NULL%1,                            Colin P%Sperring%NULL%1,                            Yuqing%Xiong%NULL%1,                            Henry W%Zhou%NULL%1,                            Karthik%Natarajan%NULL%1,                            George%Hripcsak%NULL%1,                            Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%2,                            Megan%McCullough%NULL%4,                            Megan%McCullough%NULL%0,                            Michael A.%Fuery%NULL%2,                            Fouad%Chouairi%NULL%4,                            Fouad%Chouairi%NULL%0,                            Craig%Keating%NULL%2,                            Neal G.%Ravindra%NULL%2,                            P. Elliott%Miller%NULL%2,                            Maricar%Malinis%NULL%2,                            Nitu%Kashyap%NULL%2,                            Allen%Hsiao%NULL%2,                            F. Perry%Wilson%NULL%2,                            Jeptha P.%Curtis%NULL%2,                            Matthew%Grant%NULL%2,                            Eric J.%Velazquez%NULL%2,                            Nihar R.%Desai%NULL%2,                            Tariq%Ahmad%NULL%2,                            Chiara%Lazzeri%NULL%18,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%1,                            Karen K.%Wong%NULL%1,                            Christine M.%Szablewski%NULL%1,                            Priti R.%Patel%NULL%1,                            John%Rossow%NULL%1,                            Juliana%da Silva%NULL%1,                            Pavithra%Natarajan%NULL%1,                            Sapna Bamrah%Morris%NULL%1,                            Robyn Neblett%Fanfair%NULL%1,                            Jessica%Rogers-Brown%NULL%1,                            Beau B.%Bruce%NULL%1,                            Sean D.%Browning%NULL%1,                            Alfonso C.%Hernandez-Romieu%NULL%2,                            Nathan W.%Furukawa%NULL%1,                            Mohleen%Kang%NULL%1,                            Mary E.%Evans%NULL%1,                            Nadine%Oosmanally%NULL%1,                            Melissa%Tobin-D’Angelo%NULL%1,                            Cherie%Drenzek%NULL%1,                            David J.%Murphy%NULL%0,                            Julie%Hollberg%NULL%1,                            James M.%Blum%NULL%0,                            Robert%Jansen%NULL%1,                            David W.%Wright%NULL%1,                            William M.%Sewell%NULL%1,                            Jack D.%Owens%NULL%1,                            Benjamin%Lefkove%NULL%1,                            Frank W.%Brown%NULL%1,                            Deron C.%Burton%NULL%1,                            Timothy M.%Uyeki%NULL%3,                            Stephanie R.%Bialek%NULL%1,                            Brendan R.%Jackson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%1,                            Jasmine A.%Mack%NULL%1,                            Maxwell%Salvatore%NULL%1,                            Swaraaj Prabhu%Sankar%NULL%1,                            Thomas S.%Valley%NULL%1,                            Karandeep%Singh%NULL%1,                            Brahmajee K.%Nallamothu%NULL%1,                            Sachin%Kheterpal%NULL%1,                            Lynda%Lisabeth%NULL%1,                            Lars G.%Fritsche%NULL%1,                            Bhramar%Mukherjee%NULL%1,                             T.%Gu%null%1,                             J. A.% Mack%null%1,                             M.% Salvatore%null%1,                             S. P.% Sankar%null%1,                             T. S.% Valley%null%1,                             K.% Singh%null%1,                             B. K.% Nallamothu%null%1,                             S.% Kheterpal%null%1,                             L.% Lisabeth%null%1,                             L. G.% Fritsche%null%1,                             B. G. % Mukherjee%null%1,                            T.%Gu%null%1,                            J. A.% Mack%null%1,                            M.% Salvatore%null%1,                            S. P.% Sankar%null%1,                            T. S.% Valley%null%1,                            K.% Singh%null%1,                            B. K.% Nallamothu%null%1,                            S.% Kheterpal%null%1,                            L.% Lisabeth%null%1,                            L. G.% Fritsche%null%1,                            B. G. % Mukherjee%null%1,           T.%Gu%null%1,           J. A.% Mack%null%1,           M.% Salvatore%null%1,           S. P.% Sankar%null%1,           T. S.% Valley%null%1,           K.% Singh%null%1,           B. K.% Nallamothu%null%1,           S.% Kheterpal%null%1,           L.% Lisabeth%null%1,           L. G.% Fritsche%null%1,           B. G. % Mukherjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%1,                            Shikha%Garg%NULL%1,                            Alissa%O’Halloran%NULL%1,                            Michael%Whitaker%NULL%1,                            Huong%Pham%NULL%1,                            Evan J%Anderson%NULL%1,                            Isaac%Armistead%NULL%1,                            Nancy M%Bennett%NULL%1,                            Laurie%Billing%NULL%1,                            Kathryn%Como-Sabetti%NULL%1,                            Mary%Hill%NULL%1,                            Sue%Kim%NULL%1,                            Maya L%Monroe%NULL%1,                            Alison%Muse%NULL%1,                            Arthur L%Reingold%NULL%1,                            William%Schaffner%NULL%1,                            Melissa%Sutton%NULL%1,                            H Keipp%Talbot%NULL%1,                            Salina M%Torres%NULL%1,                            Kimberly%Yousey-Hindes%NULL%1,                            Rachel%Holstein%NULL%1,                            Charisse%Cummings%NULL%1,                            Lynette%Brammer%NULL%1,                            Aron J%Hall%NULL%1,                            Alicia M%Fry%NULL%1,                            Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%1,                            Jienchi%Dorward%NULL%1,                            Ana%Correa%NULL%1,                            Nicholas%Jones%NULL%1,                            Oluwafunmi%Akinyemi%NULL%1,                            Gayatri%Amirthalingam%NULL%1,                            Nick%Andrews%NULL%1,                            Rachel%Byford%NULL%1,                            Gavin%Dabrera%NULL%1,                            Alex%Elliot%NULL%1,                            Joanna%Ellis%NULL%0,                            Filipa%Ferreira%NULL%1,                            Jamie%Lopez Bernal%NULL%1,                            Cecilia%Okusi%NULL%1,                            Mary%Ramsay%NULL%1,                            Julian%Sherlock%NULL%1,                            Gillian%Smith%NULL%1,                            John%Williams%NULL%1,                            Gary%Howsam%NULL%1,                            Maria%Zambon%NULL%0,                            Mark%Joy%NULL%1,                            F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%1,                            Johanna%Dolle%NULL%2,                            Johanna%Dolle%NULL%0,                            Sheila%Grami%NULL%1,                            Richard%Adule%NULL%1,                            Zeyu%Li%NULL%1,                            Kathleen%Tatem%NULL%1,                            Chinyere%Anyaogu%NULL%1,                            Stephen%Apfelroth%NULL%1,                            Raji%Ayinla%NULL%2,                            Raji%Ayinla%NULL%0,                            Noella%Boma%NULL%1,                            Terence%Brady%NULL%1,                            Braulio F.%Cosme-Thormann%NULL%1,                            Roseann%Costarella%NULL%1,                            Kenra%Ford%NULL%1,                            Kecia%Gaither%NULL%1,                            Jessica%Jacobson%NULL%1,                            Marc%Kanter%NULL%1,                            Stuart%Kessler%NULL%1,                            Ross B.%Kristal%NULL%1,                            Joseph J.%Lieber%NULL%1,                            Vikramjit%Mukherjee%NULL%1,                            Vincent%Rizzo%NULL%1,                            Madden%Rowell%NULL%1,                            David%Stevens%NULL%1,                            Elana%Sydney%NULL%1,                            Andrew%Wallach%NULL%2,                            Andrew%Wallach%NULL%0,                            Dave A.%Chokshi%NULL%1,                            Nichola%Davis%NULL%1,                            NULL%NULL%NULL%0,                            Sze Yan%Liu%NULL%2,                            Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%6,                            Mark%Caridi-Scheible%NULL%0,                            James M.%Blum%NULL%0,                            Chad%Robichaux%NULL%1,                            Colleen%Kraft%NULL%1,                            Jesse T.%Jacob%NULL%1,                            Craig S.%Jabaley%NULL%0,                            David%Carpenter%NULL%1,                            Roberta%Kaplow%NULL%1,                            Alfonso C.%Hernandez-Romieu%NULL%0,                            Max W.%Adelman%NULL%0,                            Greg S.%Martin%NULL%0,                            Craig M.%Coopersmith%NULL%1,                            David J.%Murphy%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%1,                            David R.%Jenkins%NULL%1,                            Jatinder S.%Minhas%NULL%1,                            Laura J.%Gray%NULL%1,                            Julian%Tang%NULL%1,                            Caroline%Williams%NULL%1,                            Shirley%Sze%NULL%1,                            Daniel%Pan%NULL%1,                            William%Jones%NULL%1,                            Raman%Verma%NULL%1,                            Scott%Knapp%NULL%1,                            Rupert%Major%NULL%1,                            Melanie%Davies%NULL%1,                            Nigel%Brunskill%NULL%1,                            Martin%Wiselka%NULL%1,                            Chris%Brightling%NULL%1,                            Kamlesh%Khunti%NULL%1,                            Pranab%Haldar%NULL%1,                            Manish%Pareek%mp426@le.ac.uk%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%1,                            Kelly E%Hathorn%NULL%2,                            Kelly E%Hathorn%NULL%0,                            Walker D%Redd%NULL%1,                            Nicolette J%Rodriguez%NULL%1,                            Joyce C%Zhou%NULL%1,                            Ahmad Najdat%Bazarbashi%NULL%1,                            Cheikh%Njie%NULL%1,                            Danny%Wong%NULL%1,                            Quoc-Dien%Trinh%NULL%1,                            Lin%Shen%NULL%1,                            Valerie E%Stone%NULL%2,                            Valerie E%Stone%NULL%0,                            Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%1,                            Thomas E.%Webb%NULL%2,                            Thomas E.%Webb%NULL%0,                            Benjamin C.%Mcloughlin%NULL%2,                            Benjamin C.%Mcloughlin%NULL%0,                            Imran%Mannan%NULL%2,                            Imran%Mannan%NULL%0,                            Arshad%Rather%NULL%2,                            Arshad%Rather%NULL%0,                            Paul%Knopp%NULL%1,                            Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%1,                            Rajat%Suri%NULL%2,                            Rajat%Suri%NULL%0,                            Iheanacho O.%Emeruwa%NULL%2,                            Iheanacho O.%Emeruwa%NULL%0,                            Robert J.%Stretch%NULL%1,                            Roxana Y.%Cortes-Lopez%NULL%2,                            Roxana Y.%Cortes-Lopez%NULL%0,                            Alexander%Sherman%NULL%1,                            Catherine C.%Lindsay%NULL%1,                            Jennifer A.%Fulcher%NULL%1,                            David%Goodman-Meza%NULL%2,                            David%Goodman-Meza%NULL%0,                            Anil%Sapru%NULL%2,                            Anil%Sapru%NULL%0,                            Russell G.%Buhr%NULL%1,                            Steven Y.%Chang%NULL%2,                            Steven Y.%Chang%NULL%0,                            Tisha%Wang%NULL%1,                            Nida%Qadir%NULL%1,                            Giordano%Madeddu%NULL%8,                            Giordano%Madeddu%NULL%0,                            Giordano%Madeddu%NULL%0,                            Ana C.%Monteiro%NULL%2,                            Ana C.%Monteiro%NULL%0,                            Giordano%Madeddu%NULL%0,                            Giordano%Madeddu%NULL%0,                            Giordano%Madeddu%NULL%0,                            Giordano%Madeddu%NULL%0,                            Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%1,                            Catherine A.%O’Donnell%NULL%1,                            Bhautesh Dinesh%Jani%NULL%1,                            Evangelia%Demou%NULL%1,                            Frederick K.%Ho%NULL%1,                            Carlos%Celis-Morales%NULL%1,                            Barbara I.%Nicholl%NULL%1,                            Frances S.%Mair%NULL%1,                            Paul%Welsh%NULL%1,                            Naveed%Sattar%NULL%1,                            Jill P.%Pell%NULL%1,                            S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%1,                            Alex J%Walker%NULL%1,                            Krishnan%Bhaskaran%NULL%1,                            Seb%Bacon%NULL%1,                            Chris%Bates%NULL%1,                            Caroline E%Morton%NULL%1,                            Helen J%Curtis%NULL%1,                            Amir%Mehrkar%NULL%1,                            David%Evans%NULL%1,                            Peter%Inglesby%NULL%1,                            Jonathan%Cockburn%NULL%1,                            Helen I%McDonald%NULL%1,                            Brian%MacKenna%NULL%1,                            Laurie%Tomlinson%NULL%1,                            Ian J%Douglas%NULL%1,                            Christopher T%Rentsch%NULL%1,                            Rohini%Mathur%NULL%1,                            Angel YS%Wong%NULL%1,                            Richard%Grieve%NULL%1,                            David%Harrison%NULL%1,                            Harriet%Forbes%NULL%1,                            Anna%Schultze%NULL%2,                            Richard%Croker%NULL%1,                            John%Parry%NULL%1,                            Frank%Hester%NULL%1,                            Sam%Harper%NULL%1,                            Rafael%Perera%NULL%1,                            Stephen JW%Evans%NULL%1,                            Liam%Smeeth%NULL%1,                            Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%1,                            Ajay%Bhasin%NULL%1,                            Joseph M.%Feinglass%NULL%1,                            Michael P.%Angarone%NULL%1,                            Elaine R.%Cohen%NULL%1,                            Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%1,                            Andrew%Gangemi%NULL%1,                            Robert%Marron%NULL%1,                            Junad%Chowdhury%NULL%1,                            Ibraheem%Yousef%NULL%1,                            Matthew%Zheng%NULL%1,                            Nicole%Mills%NULL%1,                            Lauren%Tragesser%NULL%1,                            Julie%Giurintano%NULL%1,                            Rohit%Gupta%NULL%0,                            Matthew%Gordon%NULL%0,                            Parth%Rali%NULL%2,                            Parth%Rali%NULL%0,                            Gilbert%D'Alonso%NULL%1,                            David%Fleece%NULL%1,                            Huaqing%Zhao%NULL%0,                            Nicole%Patlakh%NULL%0,                            Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%1,                            Nathan C.%Skorodin%nskorodin@midcusa.com%1,                            Nicholas W.%Van Hise%NULL%1,                            Robert M.%Fliegelman%NULL%1,                            Jonathan%Pinsky%NULL%1,                            Vishal%Didwania%NULL%1,                            Michael%Anderson%NULL%1,                            Melina%Diaz%NULL%1,                            Kairav%Shah%NULL%1,                            Vishnu V.%Chundi%NULL%1,                            David W.%Hines%NULL%1,                            Brian P.%Harting%NULL%1,                            Kamo%Sidwha%NULL%1,                            Brian%Yu%NULL%1,                            Paul%Brune%NULL%1,                            Anjum%Owaisi%NULL%1,                            David%Beezhold%NULL%1,                            Joseph%Kent%NULL%1,                            Dana%Vais%NULL%1,                            Alice%Han%NULL%1,                            Neethi%Gowda%NULL%1,                            Nishi%Sahgal%NULL%1,                            Jan%Silverman%NULL%1,                            Jonathan%Stake%NULL%1,                            Jenie%Nepomuceno%NULL%1,                            Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%1,                            Anna%Daunt%NULL%2,                            Anna%Daunt%NULL%0,                            Sujit%Mukherjee%NULL%1,                            Peter%Crook%NULL%1,                            Roberta%Forlano%NULL%1,                            Mara D%Kont%NULL%1,                            Alessandra%Løchen%NULL%1,                            Michaela%Vollmer%NULL%1,                            Paul%Middleton%NULL%1,                            Rebekah%Judge%NULL%1,                            Christopher%Harlow%NULL%1,                            Anet%Soubieres%NULL%1,                            Graham%Cooke%NULL%1,                            Peter J%White%NULL%1,                            Timothy B%Hallett%NULL%1,                            Paul%Aylin%NULL%1,                            Neil%Ferguson%NULL%1,                            Katharina%Hauck%NULL%1,                            Mark R%Thursz%NULL%1,                            Shevanthi%Nayagam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%2,                            Jeffrey%Burton%NULL%2,                            Jeffrey%Burton%NULL%0,                            Daniel%Fort%NULL%1,                            Leonardo%Seoane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%1,                            Michael S.%Sherman%NULL%1,                            Naaz%Fatteh%NULL%1,                            Fabio%Vogel%NULL%1,                            Jamie%Sacks%NULL%1,                            Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%1,                            Farah%Kidwai-Khan%NULL%1,                            Janet P.%Tate%NULL%1,                            Lesley S.%Park%NULL%1,                            Joseph T.%King%NULL%1,                            Melissa%Skanderson%NULL%1,                            Ronald G.%Hauser%NULL%1,                            Anna%Schultze%NULL%0,                            Christopher I.%Jarvis%NULL%1,                            Mark%Holodniy%NULL%1,                            Vincent Lo%Re%NULL%1,                            Kathleen M.%Akgün%NULL%1,                            Kristina%Crothers%NULL%1,                            Tamar H.%Taddei%NULL%1,                            Matthew S.%Freiberg%NULL%1,                            Amy C.%Justice%NULL%1,                             C. T.%Rentsch%null%1,                             F.% Kidwai-Khan%null%1,                             J. P.% Tate%null%1,                             L. S.% Park%null%1,                             J. T.% King%null%1,                             M.% Skanderson%null%1,                             R. G.% Hauser%null%1,                             A.% Schultze%null%1,                             C. I.% Jarvis%null%1,                             M.% Holodniy%null%1,                             V.% Lo Re%null%1,                             K. M.% Akgun%null%1,                             K.% Crothers%null%1,                             T. H.% Taddei%null%1,                             M. S.% Freiberg%null%1,                             A. C. % Justice%null%1,                            C. T.%Rentsch%null%1,                            F.% Kidwai-Khan%null%1,                            J. P.% Tate%null%1,                            L. S.% Park%null%1,                            J. T.% King%null%1,                            M.% Skanderson%null%1,                            R. G.% Hauser%null%1,                            A.% Schultze%null%1,                            C. I.% Jarvis%null%1,                            M.% Holodniy%null%1,                            V.% Lo Re%null%1,                            K. M.% Akgun%null%1,                            K.% Crothers%null%1,                            T. H.% Taddei%null%1,                            M. S.% Freiberg%null%1,                            A. C. % Justice%null%1,           C. T.%Rentsch%null%1,           F.% Kidwai-Khan%null%1,           J. P.% Tate%null%1,           L. S.% Park%null%1,           J. T.% King%null%1,           M.% Skanderson%null%1,           R. G.% Hauser%null%1,           A.% Schultze%null%1,           C. I.% Jarvis%null%1,           M.% Holodniy%null%1,           V.% Lo Re%null%1,           K. M.% Akgun%null%1,           K.% Crothers%null%1,           T. H.% Taddei%null%1,           M. S.% Freiberg%null%1,           A. C. % Justice%null%1]</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%1,                            Jennifer%Beam%NULL%2,                            Jennifer%Beam%NULL%0,                            Haley%Maier%NULL%1,                            Whitney%Haggerson%NULL%1,                            Karen%Boudreau%NULL%1,                            Jamie%Carlson%NULL%1,                            Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%1,                            Alexander E.%Ayala%NULL%1,                            Chideraa C.%Ukeje%NULL%1,                            Celeste S.%Witting%NULL%1,                            William A.%Grobman%NULL%1,                            Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%3,                            Hannah C.%Jarvis%NULL%2,                            Hannah C.%Jarvis%NULL%0,                            Ezgi%Ozcan%NULL%1,                            Thomas L. P.%Burns%NULL%1,                            Rabia A.%Warraich%NULL%1,                            Lisa J.%Amani%NULL%1,                            Amina%Jaffer%NULL%1,                            Stephanie%Paget%NULL%1,                            Anand%Sivaramakrishnan%NULL%1,                            Dean D.%Creer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%1,                            Suzy%Gallier%NULL%2,                            Suzy%Gallier%NULL%0,                            Chris%Mainey%NULL%1,                            Peter%Nightingale%NULL%2,                            Peter%Nightingale%NULL%0,                            David%McNulty%NULL%1,                            Hannah%Crothers%NULL%1,                            Felicity%Evison%NULL%1,                            Katharine%Reeves%NULL%1,                            Domenico%Pagano%NULL%1,                            Alastair K%Denniston%NULL%1,                            Krishnarajah%Nirantharakumar%NULL%1,                            Peter%Diggle%NULL%1,                            Simon%Ball%NULL%1,                            Lylah%Irshad%NULL%1,                            Maxim%Harris%NULL%1,                            Theodore%Nabav%NULL%1,                            A%Kolesnyk%NULL%1,                            M%Ahmed%NULL%1,                            A%Liaqat%NULL%1,                            Tanya%Pankhurst%NULL%1,                            Jamie%Coleman%NULL%1,                            Chirag%Dave%NULL%1,                            Khaled%ElFandi%NULL%1,                            Rifat%Rashid%NULL%1,                            Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%1,                            Gregory A%Eschenauer%NULL%2,                            Gregory A%Eschenauer%NULL%0,                            Jonathan P%Troost%NULL%1,                            Jonathan L%Golob%NULL%1,                            Tejal N%Gandhi%NULL%1,                            Lu%Wang%NULL%1,                            Nina%Zhou%NULL%1,                            Lindsay A%Petty%NULL%1,                            Ji Hoon%Baang%NULL%1,                            Nicholas O%Dillman%NULL%1,                            David%Frame%NULL%1,                            Kevin S%Gregg%NULL%1,                            Dan R%Kaul%NULL%1,                            Jerod%Nagel%NULL%1,                            Twisha S%Patel%NULL%1,                            Shiwei%Zhou%NULL%1,                            Adam S%Lauring%NULL%1,                            David A%Hanauer%NULL%1,                            Emily%Martin%NULL%1,                            Pratima%Sharma%NULL%1,                            Christopher M%Fung%NULL%1,                            Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%1,                            Lei%Qian%NULL%2,                            Lei%Qian%NULL%0,                            Vennis%Hong%NULL%1,                            Rong%Wei%NULL%2,                            Rong%Wei%NULL%0,                            Ron F.%Nadjafi%NULL%2,                            Ron F.%Nadjafi%NULL%0,                            Heidi%Fischer%NULL%1,                            Zhuoxin%Li%NULL%1,                            Sally F.%Shaw%NULL%1,                            Susan L.%Caparosa%NULL%2,                            Susan L.%Caparosa%NULL%0,                            Claudia L.%Nau%NULL%1,                            Tanmai%Saxena%NULL%1,                            Gunter K.%Rieg%NULL%1,                            Bradley K.%Ackerson%NULL%1,                            Adam L.%Sharp%NULL%2,                            Adam L.%Sharp%NULL%0,                            Jacek%Skarbinski%NULL%2,                            Jacek%Skarbinski%NULL%0,                            Tej K.%Naik%NULL%1,                            Sameer B.%Murali%NULL%2,                            Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%1,                            Juan Carlos%Nicolas%NULL%2,                            Juan Carlos%Nicolas%NULL%0,                            Jennifer R%Meeks%NULL%1,                            Osman%Khan%NULL%1,                            Alan%Pan%NULL%1,                            Stephen L%Jones%NULL%1,                            Faisal%Masud%NULL%1,                            H Dirk%Sostman%NULL%1,                            Robert%Phillips%NULL%1,                            Julia D%Andrieni%NULL%1,                            Bita A%Kash%NULL%1,                            Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%1,                            Arryn%Craney%NULL%1,                            Phyllis%Ruggiero%NULL%1,                            John%Sipley%NULL%1,                            Lin%Cong%NULL%1,                            Erika M.%Hissong%NULL%1,                            Massimo%Loda%NULL%1,                            Lars F.%Westblade%NULL%1,                            Melissa%Cushing%NULL%2,                            Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%1,                            Amanda%Zheutlin%NULL%2,                            Amanda%Zheutlin%NULL%0,                            Yu-Han%Kao%NULL%1,                            Kristin%Ayers%NULL%1,                            Susan%Gross%NULL%1,                            Patricia%Kovatch%NULL%1,                            Sharon%Nirenberg%NULL%1,                            Alexander%Charney%NULL%1,                            Girish%Nadkarni%NULL%1,                            Jessica K%De Freitas%NULL%1,                            Paul%O’Reilly%NULL%1,                            Allan%Just%NULL%1,                            Carol%Horowitz%NULL%1,                            Glenn%Martin%NULL%1,                            Andrea%Branch%NULL%1,                            Benjamin S%Glicksberg%NULL%1,                            Dennis%Charney%NULL%1,                            David%Reich%NULL%1,                            William K%Oh%NULL%1,                            Eric%Schadt%NULL%1,                            Rong%Chen%NULL%0,                            Li%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%1,                            Angela%Winegar%NULL%1,                            Richard%Fogel%NULL%1,                            Mohamad%Fakih%NULL%1,                            Allison%Ottenbacher%NULL%1,                            Christine%Jesser%NULL%1,                            Angelo%Bufalino%NULL%1,                            Ren-Huai%Huang%NULL%1,                            Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%1,                            Rebecca%Bendayan%NULL%0,                            Mark%Ashworth%NULL%1,                            Daniel M.%Bean%NULL%1,                            Hiten%Dodhia%NULL%1,                            Stevo%Durbaba%NULL%1,                            Kevin%O'Gallagher%NULL%1,                            Claire%Palmer%NULL%1,                            Vasa%Curcin%NULL%1,                            Elizabeth%Aitken%NULL%1,                            William%Bernal%NULL%1,                            Richard D.%Barker%NULL%1,                            Sam%Norton%NULL%1,                            Martin%Gulliford%NULL%1,                            James T.H.%Teo%NULL%0,                            James%Galloway%NULL%1,                            Richard J.B.%Dobson%NULL%0,                            Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%1,                            Carina%Marquez%NULL%1,                            Emily%Crawford%NULL%1,                            James%Peng%NULL%1,                            Maya%Petersen%NULL%1,                            Daniel%Schwab%NULL%1,                            Joshua%Schwab%NULL%1,                            Jackie%Martinez%NULL%1,                            Diane%Jones%NULL%1,                            Douglas%Black%NULL%1,                            Monica%Gandhi%NULL%1,                            Andrew D%Kerkhoff%NULL%1,                            Vivek%Jain%NULL%1,                            Francesco%Sergi%NULL%1,                            Jon%Jacobo%NULL%1,                            Susana%Rojas%NULL%1,                            Valerie%Tulier-Laiwa%NULL%1,                            Tracy%Gallardo-Brown%NULL%1,                            Ayesha%Appa%NULL%1,                            Charles%Chiu%NULL%1,                            Mary%Rodgers%NULL%1,                            John%Hackett%NULL%1,                            NULL%NULL%NULL%0,                            Amy%Kistler%NULL%1,                            Samantha%Hao%NULL%1,                            Jack%Kamm%NULL%1,                            David%Dynerman%NULL%1,                            Joshua%Batson%NULL%1,                            Bryan%Greenhouse%NULL%1,                            Joe%DeRisi%NULL%1,                            Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0,                            Tiffany%Grimes%NULL%1,                            Peng%Li%NULL%1,                            Matthew%Might%NULL%1,                            Fernando%Ovalle%NULL%1,                            Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%1,                            Natalie%Achamallah%NULL%1,                            Hongwei%Ji%NULL%1,                            Brian L.%Claggett%NULL%1,                            Nancy%Sun%NULL%1,                            Patrick%Botting%NULL%1,                            Trevor-Trung%Nguyen%NULL%1,                            Eric%Luong%NULL%1,                            Elizabeth H.%Kim%NULL%1,                            Eunice%Park%NULL%1,                            Yunxian%Liu%NULL%1,                            Ryan%Rosenberry%NULL%1,                            Yuri%Matusov%NULL%1,                            Steven%Zhao%NULL%1,                            Isabel%Pedraza%NULL%1,                            Tanzira%Zaman%NULL%1,                            Michael%Thompson%NULL%1,                            Koen%Raedschelders%NULL%1,                            Anders H.%Berg%NULL%2,                            Anders H.%Berg%NULL%0,                            Jonathan D.%Grein%NULL%1,                            Paul W.%Noble%NULL%1,                            Sumeet S.%Chugh%NULL%1,                            C. Noel%Bairey Merz%NULL%1,                            Eduardo%Marbán%NULL%1,                            Jennifer E.%Van Eyk%NULL%1,                            Scott D.%Solomon%NULL%1,                            Christine M.%Albert%NULL%1,                            Peter%Chen%NULL%1,                            Susan%Cheng%NULL%3,                            Yu Ru%Kou%NULL%8,                            Yu Ru%Kou%NULL%0,                            Yu Ru%Kou%NULL%0,                            Susan%Cheng%biodatacore@cshs.org%0,                            Susan%Cheng%biodatacore@cshs.org%0,                            Yu Ru%Kou%NULL%0,                            Yu Ru%Kou%NULL%0,                            Yu Ru%Kou%NULL%0,                            Yu Ru%Kou%NULL%0,                            Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%1,                            Penelope%Strid%NULL%1,                            Van T.%Tong%NULL%1,                            Kate%Woodworth%NULL%1,                            Romeo R.%Galang%NULL%1,                            Laura D.%Zambrano%NULL%1,                            John%Nahabedian%NULL%1,                            Kayla%Anderson%NULL%1,                            Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%2,                            Jacob%Fiksel%NULL%2,                            Jacob%Fiksel%NULL%0,                            John%Muschelli%NULL%2,                            John%Muschelli%NULL%0,                            Matthew L.%Robinson%NULL%2,                            Matthew L.%Robinson%NULL%0,                            Masoud%Rouhizadeh%NULL%2,                            Masoud%Rouhizadeh%NULL%0,                            Jamie%Perin%NULL%2,                            Jamie%Perin%NULL%0,                            Grant%Schumock%NULL%2,                            Grant%Schumock%NULL%0,                            Paul%Nagy%NULL%2,                            Paul%Nagy%NULL%0,                            Josh H.%Gray%NULL%2,                            Josh H.%Gray%NULL%0,                            Harsha%Malapati%NULL%2,                            Harsha%Malapati%NULL%0,                            Mariam%Ghobadi-Krueger%NULL%2,                            Mariam%Ghobadi-Krueger%NULL%0,                            Timothy M.%Niessen%NULL%1,                            Bo Soo%Kim%NULL%1,                            Peter M.%Hill%NULL%1,                            M. Shafeeq%Ahmed%NULL%1,                            Eric D.%Dobkin%NULL%1,                            Renee%Blanding%NULL%1,                            Jennifer%Abele%NULL%1,                            Bonnie%Woods%NULL%1,                            Kenneth%Harkness%NULL%1,                            David R.%Thiemann%NULL%1,                            Mary G.%Bowring%NULL%1,                            Aalok B.%Shah%NULL%2,                            Aalok B.%Shah%NULL%0,                            Mei-Cheng%Wang%NULL%1,                            Karen%Bandeen-Roche%NULL%1,                            Antony%Rosen%NULL%1,                            Scott L.%Zeger%NULL%2,                            Scott L.%Zeger%NULL%0,                            Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0,                            Megan%McCullough%NULL%0,                            Megan%McCullough%NULL%0,                            Michael A.%Fuery%NULL%0,                            Fouad%Chouairi%NULL%0,                            Fouad%Chouairi%NULL%0,                            Craig%Keating%NULL%0,                            Neal G.%Ravindra%NULL%0,                            P. Elliott%Miller%NULL%0,                            Maricar%Malinis%NULL%0,                            Nitu%Kashyap%NULL%0,                            Allen%Hsiao%NULL%0,                            F. Perry%Wilson%NULL%0,                            Jeptha P.%Curtis%NULL%0,                            Matthew%Grant%NULL%0,                            Eric J.%Velazquez%NULL%0,                            Nihar R.%Desai%NULL%0,                            Tariq%Ahmad%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0,                            Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%5, Cody L%Slater%NULL%5, Jonathan R%Tiao%NULL%5, Matthew R%Baldwin%NULL%7, R Graham%Barr%NULL%5, Bernard P%Chang%NULL%5, Katherine H%Chau%NULL%5, Justin J%Choi%NULL%5, Nicholas%Gavin%NULL%5, Parag%Goyal%NULL%0, Angela M%Mills%NULL%5, Ashmi A%Patel%NULL%5, Marie-Laure S%Romney%NULL%5, Monika M%Safford%NULL%5, Neil W%Schluger%NULL%5, Soumitra%Sengupta%NULL%5, Magdalena E%Sobieszczyk%NULL%0, Jason E%Zucker%NULL%5, Paul A%Asadourian%NULL%5, Fletcher M%Bell%NULL%5, Rebekah%Boyd%NULL%5, Matthew F%Cohen%NULL%5, MacAlistair I%Colquhoun%NULL%5, Lucy A%Colville%NULL%5, Joseph H%de Jonge%NULL%5, Lyle B%Dershowitz%NULL%5, Shirin A%Dey%NULL%5, Katherine A%Eiseman%NULL%5, Zachary P%Girvin%NULL%5, Daniella T%Goni%NULL%5, Amro A%Harb%NULL%5, Nicholas%Herzik%NULL%5, Sarah%Householder%NULL%5, Lara E%Karaaslan%NULL%5, Heather%Lee%NULL%5, Evan%Lieberman%NULL%5, Andrew%Ling%NULL%5, Ree%Lu%NULL%5, Arthur Y%Shou%NULL%5, Alexander C%Sisti%NULL%5, Zachary E%Snow%NULL%5, Colin P%Sperring%NULL%5, Yuqing%Xiong%NULL%5, Henry W%Zhou%NULL%5, Karthik%Natarajan%NULL%5, George%Hripcsak%NULL%5, Ruijun%Chen%NULL%9]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[César%Caraballo%NULL%0, Megan%McCullough%NULL%4, Megan%McCullough%NULL%0, Michael A.%Fuery%NULL%2, Fouad%Chouairi%NULL%4, Fouad%Chouairi%NULL%0, Craig%Keating%NULL%2, Neal G.%Ravindra%NULL%2, P. Elliott%Miller%NULL%2, Maricar%Malinis%NULL%2, Nitu%Kashyap%NULL%2, Allen%Hsiao%NULL%2, F. Perry%Wilson%NULL%2, Jeptha P.%Curtis%NULL%2, Matthew%Grant%NULL%2, Eric J.%Velazquez%NULL%2, Nihar R.%Desai%NULL%2, Tariq%Ahmad%NULL%2, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%NULL%0, Karen K.%Wong%NULL%2, Christine M.%Szablewski%NULL%2, Priti R.%Patel%NULL%2, John%Rossow%NULL%2, Juliana%da Silva%NULL%2, Pavithra%Natarajan%NULL%2, Sapna Bamrah%Morris%NULL%4, Robyn Neblett%Fanfair%NULL%2, Jessica%Rogers-Brown%NULL%2, Beau B.%Bruce%NULL%2, Sean D.%Browning%NULL%2, Alfonso C.%Hernandez-Romieu%NULL%0, Nathan W.%Furukawa%NULL%2, Mohleen%Kang%NULL%2, Mary E.%Evans%NULL%2, Nadine%Oosmanally%NULL%2, Melissa%Tobin-D’Angelo%NULL%2, Cherie%Drenzek%NULL%2, David J.%Murphy%NULL%0, Julie%Hollberg%NULL%2, James M.%Blum%NULL%0, Robert%Jansen%NULL%2, David W.%Wright%NULL%2, William M.%Sewell%NULL%2, Jack D.%Owens%NULL%2, Benjamin%Lefkove%NULL%2, Frank W.%Brown%NULL%2, Deron C.%Burton%NULL%2, Timothy M.%Uyeki%NULL%4, Stephanie R.%Bialek%NULL%2, Brendan R.%Jackson%NULL%2]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>COVID-19 outcomes, risk factors and associations by race: a comprehensive analysis using electronic health records data in Michigan Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance:
+id="P1"&gt;Blacks/African-Americans are overrepresented in the number of COVID-19 infections, hospitalizations and deaths.
+ Reasons for this disparity have not been well-characterized but may be due to underlying comorbidities or sociodemographic factors.
+Objective:
+id="P2"&gt;To systematically determine patient characteristics associated with racial/ethnic disparities in COVID-19 outcomes.
+Design:
+id="P3"&gt;A retrospective cohort study with comparative control groups.
+Setting:
+id="P4"&gt;Patients tested for COVID-19 at University of Michigan Medicine from March 10, 2020 to April 22, 2020.
+Participants:
+id="P5"&gt;5,698 tested patients and two sets of comparison groups who were not tested for COVID-19: randomly selected unmatched controls (n = 7,211) and frequency-matched controls by race, age, and sex (n = 13,351).
+Main Outcomes and Measures:
+id="P6"&gt;We identified factors associated with testing and testing positive for COVID-19, being hospitalized, requiring intensive care unit (ICU) admission, and mortality (in/out-patient during the time frame).
+ Factors included race/ethnicity, age, smoking, alcohol consumption, healthcare utilization, and residential-level socioeconomic characteristics (SES; i.
+e.
+, education, unemployment, population density, and poverty rate).
+ Medical comorbidities were defined from the International Classification of Diseases (ICD) codes, and were aggregated into a comorbidity score.
+Results:
+id="P7"&gt;Of 5,698 patients, (median age, 47 years; 38% male; mean BMI, 30.1), the majority were non-Hispanic Whites (NHW, 59.2%) and non-Hispanic Black/African-Americans (NHAA, 17.2%).
+ Among 1,119 diagnosed, there were 41.2% NHW and 37.4% NHAA; 44.8% hospitalized, 20.6% admitted to ICU, and 3.8% died.
+ Adjusting for age, sex, and SES, NHAA were 1.66 times more likely to be hospitalized (95% CI, 1.09-2.52; P=.
+02), 1.52 times more likely to enter ICU (95% CI, 0.92-2.52; P=.
+10).
+ In addition to older age, male sex and obesity, high population density neighborhood (OR, 1.27 associated with one SD change [95% CI, 1.20-1.76]; P=.
+02) was associated with hospitalization.
+ Pre-existing kidney disease led to 2.55 times higher risk of hospitalization (95% CI, 1.62-4.02; P&amp;lt;.
+001) in the overall population and 11.9 times higher mortality risk in NHAA (95% CI, 2.2-64.7, P=.
+004).
+Conclusions and Relevance:
+id="P8"&gt;Pre-existing type II diabetes/kidney diseases and living in high population density areas were associated with high risk for COVID-19 susceptibility and poor prognosis.
+ Association of risk factors with COVID-19 outcomes differed by race.
+ NHAA patients were disproportionately affected by obesity and kidney disease.
+</t>
+  </si>
+  <si>
+    <t>[Tian%Gu%NULL%0, Jasmine A.%Mack%NULL%1, Maxwell%Salvatore%NULL%1, Swaraaj Prabhu%Sankar%NULL%1, Thomas S.%Valley%NULL%1, Karandeep%Singh%NULL%1, Brahmajee K.%Nallamothu%NULL%1, Sachin%Kheterpal%NULL%1, Lynda%Lisabeth%NULL%1, Lars G.%Fritsche%NULL%1, Bhramar%Mukherjee%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7418735</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>[Lindsay%Kim%LKim@cdc.gov%0, Shikha%Garg%NULL%1, Alissa%O’Halloran%NULL%1, Michael%Whitaker%NULL%1, Huong%Pham%NULL%1, Evan J%Anderson%NULL%1, Isaac%Armistead%NULL%1, Nancy M%Bennett%NULL%1, Laurie%Billing%NULL%1, Kathryn%Como-Sabetti%NULL%1, Mary%Hill%NULL%1, Sue%Kim%NULL%1, Maya L%Monroe%NULL%1, Alison%Muse%NULL%3, Arthur L%Reingold%NULL%1, William%Schaffner%NULL%1, Melissa%Sutton%NULL%1, H Keipp%Talbot%NULL%1, Salina M%Torres%NULL%1, Kimberly%Yousey-Hindes%NULL%1, Rachel%Holstein%NULL%1, Charisse%Cummings%NULL%1, Lynette%Brammer%NULL%1, Aron J%Hall%NULL%1, Alicia M%Fry%NULL%1, Gayle E%Langley%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Simon%de Lusignan%simon.delusignan@phc.ox.ac.uk%0, Jienchi%Dorward%NULL%1, Ana%Correa%NULL%1, Nicholas%Jones%NULL%1, Oluwafunmi%Akinyemi%NULL%1, Gayatri%Amirthalingam%NULL%1, Nick%Andrews%NULL%1, Rachel%Byford%NULL%1, Gavin%Dabrera%NULL%1, Alex%Elliot%NULL%1, Joanna%Ellis%NULL%0, Filipa%Ferreira%NULL%1, Jamie%Lopez Bernal%NULL%1, Cecilia%Okusi%NULL%1, Mary%Ramsay%NULL%1, Julian%Sherlock%NULL%1, Gillian%Smith%NULL%1, John%Williams%NULL%1, Gary%Howsam%NULL%1, Maria%Zambon%NULL%0, Mark%Joy%NULL%1, F D Richard%Hobbs%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Science ;, The Lancet Pub. Group</t>
+  </si>
+  <si>
+    <t>[Roopa%Kalyanaraman Marcello%NULL%0, Johanna%Dolle%NULL%2, Johanna%Dolle%NULL%0, Sheila%Grami%NULL%1, Richard%Adule%NULL%1, Zeyu%Li%NULL%1, Kathleen%Tatem%NULL%1, Chinyere%Anyaogu%NULL%1, Stephen%Apfelroth%NULL%1, Raji%Ayinla%NULL%2, Raji%Ayinla%NULL%0, Noella%Boma%NULL%1, Terence%Brady%NULL%1, Braulio F.%Cosme-Thormann%NULL%1, Roseann%Costarella%NULL%1, Kenra%Ford%NULL%1, Kecia%Gaither%NULL%1, Jessica%Jacobson%NULL%1, Marc%Kanter%NULL%1, Stuart%Kessler%NULL%1, Ross B.%Kristal%NULL%1, Joseph J.%Lieber%NULL%1, Vikramjit%Mukherjee%NULL%1, Vincent%Rizzo%NULL%1, Madden%Rowell%NULL%1, David%Stevens%NULL%1, Elana%Sydney%NULL%1, Andrew%Wallach%NULL%2, Andrew%Wallach%NULL%0, Dave A.%Chokshi%NULL%1, Nichola%Davis%NULL%1, NULL%NULL%NULL%0, Sze Yan%Liu%NULL%2, Sze Yan%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%0, James M.%Blum%NULL%0, Chad%Robichaux%NULL%6, Colleen%Kraft%NULL%6, Jesse T.%Jacob%NULL%6, Craig S.%Jabaley%NULL%0, David%Carpenter%NULL%6, Roberta%Kaplow%NULL%6, Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%0, Greg S.%Martin%NULL%0, Craig M.%Coopersmith%NULL%6, David J.%Murphy%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Christopher A.%Martin%NULL%0, David R.%Jenkins%NULL%1, Jatinder S.%Minhas%NULL%1, Laura J.%Gray%NULL%1, Julian%Tang%NULL%1, Caroline%Williams%NULL%1, Shirley%Sze%NULL%1, Daniel%Pan%NULL%1, William%Jones%NULL%1, Raman%Verma%NULL%1, Scott%Knapp%NULL%1, Rupert%Major%NULL%1, Melanie%Davies%NULL%1, Nigel%Brunskill%NULL%1, Martin%Wiselka%NULL%0, Chris%Brightling%NULL%1, Kamlesh%Khunti%NULL%0, Pranab%Haldar%NULL%1, Manish%Pareek%mp426@le.ac.uk%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Thomas R%McCarty%NULL%0, Kelly E%Hathorn%NULL%2, Kelly E%Hathorn%NULL%0, Walker D%Redd%NULL%1, Nicolette J%Rodriguez%NULL%1, Joyce C%Zhou%NULL%1, Ahmad Najdat%Bazarbashi%NULL%1, Cheikh%Njie%NULL%0, Danny%Wong%NULL%0, Quoc-Dien%Trinh%NULL%1, Lin%Shen%NULL%0, Valerie E%Stone%NULL%2, Valerie E%Stone%NULL%0, Walter W%Chan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Miles%NULL%0, Thomas E.%Webb%NULL%2, Thomas E.%Webb%NULL%0, Benjamin C.%Mcloughlin%NULL%2, Benjamin C.%Mcloughlin%NULL%0, Imran%Mannan%NULL%2, Imran%Mannan%NULL%0, Arshad%Rather%NULL%2, Arshad%Rather%NULL%0, Paul%Knopp%NULL%1, Daniel%Davis%daniel.davis@ucl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Ana C.%Monteiro%NULL%0, Rajat%Suri%NULL%2, Rajat%Suri%NULL%0, Iheanacho O.%Emeruwa%NULL%2, Iheanacho O.%Emeruwa%NULL%0, Robert J.%Stretch%NULL%1, Roxana Y.%Cortes-Lopez%NULL%2, Roxana Y.%Cortes-Lopez%NULL%0, Alexander%Sherman%NULL%1, Catherine C.%Lindsay%NULL%1, Jennifer A.%Fulcher%NULL%1, David%Goodman-Meza%NULL%2, David%Goodman-Meza%NULL%0, Anil%Sapru%NULL%2, Anil%Sapru%NULL%0, Russell G.%Buhr%NULL%1, Steven Y.%Chang%NULL%2, Steven Y.%Chang%NULL%0, Tisha%Wang%NULL%1, Nida%Qadir%NULL%1, Giordano%Madeddu%NULL%0, Giordano%Madeddu%NULL%0, Giordano%Madeddu%NULL%0, Ana C.%Monteiro%NULL%0, Ana C.%Monteiro%NULL%0, Giordano%Madeddu%NULL%0, Giordano%Madeddu%NULL%0, Giordano%Madeddu%NULL%0, Giordano%Madeddu%NULL%0, Giordano%Madeddu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claire L.%Niedzwiedz%NULL%0, Catherine A.%O’Donnell%NULL%1, Bhautesh Dinesh%Jani%NULL%1, Evangelia%Demou%NULL%1, Frederick K.%Ho%NULL%1, Carlos%Celis-Morales%NULL%1, Barbara I.%Nicholl%NULL%1, Frances S.%Mair%NULL%1, Paul%Welsh%NULL%1, Naveed%Sattar%NULL%0, Jill P.%Pell%NULL%1, S. Vittal%Katikireddi%vittal.katikireddi@glasgow.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="P2"&gt;COVID-19 has rapidly impacted on mortality worldwide.
+1 There is unprecedented urgency to understand who is most at risk of severe outcomes, requiring new approaches for timely analysis of large datasets.
+</t>
+  </si>
+  <si>
+    <t>[Elizabeth J%Williamson%NULL%0, Alex J%Walker%NULL%1, Krishnan%Bhaskaran%NULL%1, Seb%Bacon%NULL%1, Chris%Bates%NULL%1, Caroline E%Morton%NULL%1, Helen J%Curtis%NULL%1, Amir%Mehrkar%NULL%1, David%Evans%NULL%1, Peter%Inglesby%NULL%1, Jonathan%Cockburn%NULL%1, Helen I%McDonald%NULL%1, Brian%MacKenna%NULL%1, Laurie%Tomlinson%NULL%1, Ian J%Douglas%NULL%1, Christopher T%Rentsch%NULL%1, Rohini%Mathur%NULL%1, Angel YS%Wong%NULL%1, Richard%Grieve%NULL%1, David%Harrison%NULL%1, Harriet%Forbes%NULL%1, Anna%Schultze%NULL%2, Richard%Croker%NULL%1, John%Parry%NULL%1, Frank%Hester%NULL%1, Sam%Harper%NULL%1, Rafael%Perera%NULL%1, Stephen JW%Evans%NULL%1, Liam%Smeeth%NULL%1, Ben%Goldacre%NULL%1]</t>
+  </si>
+  <si>
+    <t>Qeios</t>
+  </si>
+  <si>
+    <t>[Niti G.%Patel%NULL%0, Ajay%Bhasin%NULL%1, Joseph M.%Feinglass%NULL%1, Michael P.%Angarone%NULL%1, Elaine R.%Cohen%NULL%1, Jeffrey H.%Barsuk%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Maulin%Patel%NULL%0, Andrew%Gangemi%NULL%1, Robert%Marron%NULL%1, Junad%Chowdhury%NULL%1, Ibraheem%Yousef%NULL%1, Matthew%Zheng%NULL%1, Nicole%Mills%NULL%1, Lauren%Tragesser%NULL%1, Julie%Giurintano%NULL%1, Rohit%Gupta%NULL%0, Matthew%Gordon%NULL%0, Parth%Rali%NULL%2, Parth%Rali%NULL%0, Gilbert%D'Alonso%NULL%1, David%Fleece%NULL%1, Huaqing%Zhao%NULL%0, Nicole%Patlakh%NULL%0, Gerard%Criner%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocilizumab is an IL‐6 receptor antagonist with the ability to suppress the cytokine storm in critically ill patients infected with severe acute respiratory syndrome‐coronavirus 2 (SARS‐CoV‐2).
+ We evaluated patients treated with tocilizumab for a SARS‐CoV‐2 infection who were admitted between March 13, 2020, and April 16, 2020. This was a multicenter study with data collected by chart review both retrospectively and concurrently.
+ Parameters evaluated included age, sex, race, use of mechanical ventilation (MV), usage of steroids and vasopressors, inflammatory markers, and comorbidities.
+ Early dosing was defined as a tocilizumab dose administered prior to or within 1 day of intubation.
+ Late dosing was defined as a dose administered &amp;gt; 1 day after intubation.
+ In the absence of MV, the timing of the dose was related to the patient’s date of admission only.
+ We evaluated 145 patients.
+ The average age was 58.1 years, 64% were men, 68.3% had comorbidities, and 60% received steroid therapy.
+ Disposition of patients was 48.3% discharged and 29.3% died, of which 43.9% were African American.
+ MV was required in 55.9%, of which 34.5% died.
+ Avoidance of MV (P = 0.002) and increased survival (P &amp;lt; 0.001) was statistically associated with early dosing.
+ Tocilizumab therapy was effective at decreasing mortality and should be instituted early in the management of critically ill patients with coronavirus disease 2019) COVID‐19).
+</t>
+  </si>
+  <si>
+    <t>[Russell M.%Petrak%rpetrak@midcusa.com%0, Nathan C.%Skorodin%nskorodin@midcusa.com%1, Nicholas W.%Van Hise%NULL%1, Robert M.%Fliegelman%NULL%1, Jonathan%Pinsky%NULL%1, Vishal%Didwania%NULL%1, Michael%Anderson%NULL%1, Melina%Diaz%NULL%1, Kairav%Shah%NULL%1, Vishnu V.%Chundi%NULL%1, David W.%Hines%NULL%1, Brian P.%Harting%NULL%1, Kamo%Sidwha%NULL%1, Brian%Yu%NULL%1, Paul%Brune%NULL%1, Anjum%Owaisi%NULL%1, David%Beezhold%NULL%1, Joseph%Kent%NULL%1, Dana%Vais%NULL%1, Alice%Han%NULL%1, Neethi%Gowda%NULL%1, Nishi%Sahgal%NULL%1, Jan%Silverman%NULL%1, Jonathan%Stake%NULL%1, Jenie%Nepomuceno%NULL%1, Renuka%Heddurshetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Pablo N%Perez-Guzman%NULL%0, Anna%Daunt%NULL%0, Anna%Daunt%NULL%0, Sujit%Mukherjee%NULL%1, Peter%Crook%NULL%0, Roberta%Forlano%NULL%0, Mara D%Kont%NULL%1, Alessandra%Løchen%NULL%1, Michaela%Vollmer%NULL%1, Paul%Middleton%NULL%0, Rebekah%Judge%NULL%0, Christopher%Harlow%NULL%1, Anet%Soubieres%NULL%0, Graham%Cooke%NULL%1, Peter J%White%NULL%1, Timothy B%Hallett%NULL%1, Paul%Aylin%NULL%1, Neil%Ferguson%NULL%1, Katharina%Hauck%NULL%1, Mark R%Thursz%NULL%1, Shevanthi%Nayagam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eboni G.%Price-Haywood%NULL%0, Jeffrey%Burton%NULL%4, Jeffrey%Burton%NULL%0, Daniel%Fort%NULL%2, Leonardo%Seoane%NULL%2]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Juliana Cepelowicz%Rajter%NULL%0, Michael S.%Sherman%NULL%1, Naaz%Fatteh%NULL%1, Fabio%Vogel%NULL%1, Jamie%Sacks%NULL%1, Jean-Jacques%Rajter%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Inc under license from the American College of Chest Physicians.</t>
+  </si>
+  <si>
+    <t>Covid-19 Testing, Hospital Admission, and Intensive Care Among 2,026,227 United States Veterans Aged 54–75 Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance:
+id="P2"&gt;Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection causes coronavirus disease 2019 (Covid-19), an evolving pandemic.
+ Limited data are available characterizing SARS-Cov-2 infection in the United States.
+Objective:
+id="P3"&gt;To determine associations between demographic and clinical factors and testing positive for coronavirus 2019 (Covid-19+), and among Covid-19+ subsequent hospitalization and intensive care.
+Design, Setting, and Participants:
+id="P4"&gt;Retrospective cohort study including all patients tested for Covid-19 between February 8 and March 30, 2020, inclusive.
+ We extracted electronic health record data from the national Veterans Affairs Healthcare System, the largest integrated healthcare system in the United States, on 2,026,227 patients born between 1945 and 1965 and active in care.
+Exposures:
+id="P5"&gt;Demographic data, comorbidities, medication history, substance use, vital signs, and laboratory measures.
+ Laboratory tests were analyzed first individually and then grouped into a validated summary measure of physiologic injury (VACS Index).
+Main Outcomes and Measures:
+id="P6"&gt;We evaluated which factors were associated with Covid-19+ among all who tested.
+ Among Covid-19+ we identified factors associated with hospitalization or intensive care.
+ We identified independent associations using multivariable and conditional multivariable logistic regression with multiple imputation of missing values.
+Results:
+id="P7"&gt;Among Veterans aged 54–75 years, 585/3,789 (15.4%) tested Covid-19+.
+ In adjusted analysis (C-statistic=0.806) black race was associated with Covid-19+ (OR 4.68, 95% Cl 3.795.78) and the association remained in analyses conditional on site (OR 2.56, 95% Cl 1.89–3.46).
+ In adjusted models, laboratory abnormalities (especially fibrosis-4 score [FIB-4] &amp;gt;3.25 OR 8.73, 95% Cl 4.11–18.56), and VACS Index (per 5-point increase OR 1.62, 95% Cl 1.43–1.84) were strongly associated with hospitalization.
+ Associations were similar for intensive care.
+ Although significant in unadjusted analyses, associations with comorbid conditions and medications were substantially reduced and, in most cases, no longer significant after adjustment.
+Conclusions and Relevance:
+id="P8"&gt;Black race was strongly associated with Covid-19+, but not with hospitalization or intensive care.
+ Among Covid-19+, risk of hospitalization and intensive care may be better characterized by laboratory measures and vital signs than by comorbid conditions or prior medication exposure.
+</t>
+  </si>
+  <si>
+    <t>[Christopher T.%Rentsch%NULL%0, Farah%Kidwai-Khan%NULL%1, Janet P.%Tate%NULL%1, Lesley S.%Park%NULL%1, Joseph T.%King%NULL%1, Melissa%Skanderson%NULL%1, Ronald G.%Hauser%NULL%1, Anna%Schultze%NULL%0, Christopher I.%Jarvis%NULL%1, Mark%Holodniy%NULL%1, Vincent Lo%Re%NULL%1, Kathleen M.%Akgün%NULL%1, Kristina%Crothers%NULL%1, Tamar H.%Taddei%NULL%1, Matthew S.%Freiberg%NULL%1, Amy C.%Justice%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7276022</t>
+  </si>
+  <si>
+    <t>[Yelena%Rozenfeld%Yelena.Rozenfeld@providence.org%0, Jennifer%Beam%NULL%2, Jennifer%Beam%NULL%0, Haley%Maier%NULL%1, Whitney%Haggerson%NULL%1, Karen%Boudreau%NULL%1, Jamie%Carlson%NULL%1, Rhonda%Medows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allie%Sakowicz%NULL%0, Alexander E.%Ayala%NULL%1, Chideraa C.%Ukeje%NULL%1, Celeste S.%Witting%NULL%1, William A.%Grobman%NULL%1, Emily S.%Miller%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0, Hannah C.%Jarvis%NULL%6, Hannah C.%Jarvis%NULL%0, Ezgi%Ozcan%NULL%3, Thomas L. P.%Burns%NULL%3, Rabia A.%Warraich%NULL%3, Lisa J.%Amani%NULL%3, Amina%Jaffer%NULL%3, Stephanie%Paget%NULL%3, Anand%Sivaramakrishnan%NULL%3, Dean D.%Creer%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Elizabeth%Sapey%NULL%0, Suzy%Gallier%NULL%2, Suzy%Gallier%NULL%0, Chris%Mainey%NULL%1, Peter%Nightingale%NULL%2, Peter%Nightingale%NULL%0, David%McNulty%NULL%1, Hannah%Crothers%NULL%1, Felicity%Evison%NULL%1, Katharine%Reeves%NULL%1, Domenico%Pagano%NULL%1, Alastair K%Denniston%NULL%1, Krishnarajah%Nirantharakumar%NULL%0, Peter%Diggle%NULL%1, Simon%Ball%NULL%1, Lylah%Irshad%NULL%1, Maxim%Harris%NULL%1, Theodore%Nabav%NULL%1, A%Kolesnyk%NULL%1, M%Ahmed%NULL%1, A%Liaqat%NULL%1, Tanya%Pankhurst%NULL%1, Jamie%Coleman%NULL%1, Chirag%Dave%NULL%1, Khaled%ElFandi%NULL%1, Rifat%Rashid%NULL%1, Paul%Cockwell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily C%Somers%NULL%0, Gregory A%Eschenauer%NULL%2, Gregory A%Eschenauer%NULL%0, Jonathan P%Troost%NULL%1, Jonathan L%Golob%NULL%1, Tejal N%Gandhi%NULL%1, Lu%Wang%NULL%1, Nina%Zhou%NULL%1, Lindsay A%Petty%NULL%1, Ji Hoon%Baang%NULL%1, Nicholas O%Dillman%NULL%1, David%Frame%NULL%1, Kevin S%Gregg%NULL%1, Dan R%Kaul%NULL%1, Jerod%Nagel%NULL%1, Twisha S%Patel%NULL%1, Shiwei%Zhou%NULL%1, Adam S%Lauring%NULL%1, David A%Hanauer%NULL%1, Emily%Martin%NULL%1, Pratima%Sharma%NULL%0, Christopher M%Fung%NULL%1, Jason M%Pogue%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerging reports suggest that obese patients who are hospitalized with COVID-19 may have worse outcomes; whether this association extends to those who are not hospitalized is unclear.
+ This study examines the association between obesity and death 21 days after diagnosis of COVID-19 among patients who receive care in an integrated health care system, accounting for obesity-related comorbidities and sociodemographic factors.
+</t>
+  </si>
+  <si>
+    <t>[Sara Y.%Tartof%NULL%0, Lei%Qian%NULL%2, Lei%Qian%NULL%0, Vennis%Hong%NULL%1, Rong%Wei%NULL%2, Rong%Wei%NULL%0, Ron F.%Nadjafi%NULL%2, Ron F.%Nadjafi%NULL%0, Heidi%Fischer%NULL%1, Zhuoxin%Li%NULL%1, Sally F.%Shaw%NULL%1, Susan L.%Caparosa%NULL%2, Susan L.%Caparosa%NULL%0, Claudia L.%Nau%NULL%1, Tanmai%Saxena%NULL%1, Gunter K.%Rieg%NULL%1, Bradley K.%Ackerson%NULL%1, Adam L.%Sharp%NULL%2, Adam L.%Sharp%NULL%0, Jacek%Skarbinski%NULL%2, Jacek%Skarbinski%NULL%0, Tej K.%Naik%NULL%1, Sameer B.%Murali%NULL%2, Sameer B.%Murali%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t>[Farhaan S%Vahidy%NULL%0, Juan Carlos%Nicolas%NULL%2, Juan Carlos%Nicolas%NULL%0, Jennifer R%Meeks%NULL%1, Osman%Khan%NULL%1, Alan%Pan%NULL%1, Stephen L%Jones%NULL%1, Faisal%Masud%NULL%1, H Dirk%Sostman%NULL%1, Robert%Phillips%NULL%1, Julia D%Andrieni%NULL%1, Bita A%Kash%NULL%1, Khurram%Nasir%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An epidemic caused by an outbreak of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) in China in December 2019 has since rapidly spread internationally, requiring urgent response from the clinical diagnostics community.
+ We present a detailed overview of the clinical validation and implementation of the first laboratory-developed real-time RT-PCR test offered in the NewYork-Presbyterian Hospital system following the Emergency Use Authorization issued by the US Food and Drug Administration.
+ Nasopharyngeal and sputum specimens (n = 174) were validated using newly designed dual-target real-time RT-PCR (altona RealStar SARS-CoV-2 Reagent) for detecting SARS-CoV-2 in upper respiratory tract and lower respiratory tract specimens.
+ Accuracy testing demonstrated excellent assay agreement between expected and observed values and comparable diagnostic performance to reference tests.
+ The limit of detection was 2.7 and 23.0 gene copies per reaction for nasopharyngeal and sputum specimens, respectively.
+ Retrospective analysis of 1694 upper respiratory tract specimens from 1571 patients revealed increased positivity in older patients and males compared with females, and an increasing positivity rate from approximately 20% at the start of testing to 50% at the end of testing 3 weeks later.
+ Herein, we demonstrate that the assay accurately and sensitively identifies SARS-CoV-2 in multiple specimen types in the clinical setting and summarize clinical data from early in the epidemic in New York City.
+</t>
+  </si>
+  <si>
+    <t>[Priya%Velu%NULL%0, Arryn%Craney%NULL%1, Phyllis%Ruggiero%NULL%1, John%Sipley%NULL%1, Lin%Cong%NULL%1, Erika M.%Hissong%NULL%1, Massimo%Loda%NULL%1, Lars F.%Westblade%NULL%1, Melissa%Cushing%NULL%2, Hanna%Rennert%NULL%1]</t>
+  </si>
+  <si>
+    <t>Association for Molecular Pathology and American Society for Investigative Pathology. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Zichen%Wang%NULL%0, Amanda%Zheutlin%NULL%2, Amanda%Zheutlin%NULL%0, Yu-Han%Kao%NULL%1, Kristin%Ayers%NULL%1, Susan%Gross%NULL%1, Patricia%Kovatch%NULL%0, Sharon%Nirenberg%NULL%1, Alexander%Charney%NULL%2, Girish%Nadkarni%NULL%2, Jessica K%De Freitas%NULL%0, Paul%O’Reilly%NULL%5, Allan%Just%NULL%3, Carol%Horowitz%NULL%1, Glenn%Martin%NULL%1, Andrea%Branch%NULL%1, Benjamin S%Glicksberg%NULL%0, Dennis%Charney%NULL%3, David%Reich%NULL%1, William K%Oh%NULL%1, Eric%Schadt%NULL%1, Rong%Chen%NULL%0, Li%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Baligh R.%Yehia%NULL%0, Angela%Winegar%NULL%1, Richard%Fogel%NULL%1, Mohamad%Fakih%NULL%1, Allison%Ottenbacher%NULL%1, Christine%Jesser%NULL%1, Angelo%Bufalino%NULL%1, Ren-Huai%Huang%NULL%1, Joseph%Cacchione%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Rosita%Zakeri%NULL%0, Rebecca%Bendayan%NULL%0, Mark%Ashworth%NULL%1, Daniel M.%Bean%NULL%0, Hiten%Dodhia%NULL%1, Stevo%Durbaba%NULL%1, Kevin%O'Gallagher%NULL%1, Claire%Palmer%NULL%1, Vasa%Curcin%NULL%1, Elizabeth%Aitken%NULL%1, William%Bernal%NULL%1, Richard D.%Barker%NULL%1, Sam%Norton%NULL%1, Martin%Gulliford%NULL%1, James T.H.%Teo%NULL%0, James%Galloway%NULL%1, Richard J.B.%Dobson%NULL%0, Ajay M.%Shah%ajay.shah@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Gabriel%Chamie%Gabriel.Chamie@ucsf.edu%0, Carina%Marquez%NULL%1, Emily%Crawford%NULL%1, James%Peng%NULL%1, Maya%Petersen%NULL%1, Daniel%Schwab%NULL%1, Joshua%Schwab%NULL%1, Jackie%Martinez%NULL%1, Diane%Jones%NULL%1, Douglas%Black%NULL%1, Monica%Gandhi%NULL%1, Andrew D%Kerkhoff%NULL%1, Vivek%Jain%NULL%1, Francesco%Sergi%NULL%1, Jon%Jacobo%NULL%1, Susana%Rojas%NULL%1, Valerie%Tulier-Laiwa%NULL%1, Tracy%Gallardo-Brown%NULL%1, Ayesha%Appa%NULL%0, Charles%Chiu%NULL%1, Mary%Rodgers%NULL%1, John%Hackett%NULL%1, NULL%NULL%NULL%0, Amy%Kistler%NULL%2, Samantha%Hao%NULL%2, Jack%Kamm%NULL%2, David%Dynerman%NULL%1, Joshua%Batson%NULL%1, Bryan%Greenhouse%NULL%2, Joe%DeRisi%NULL%1, Diane V%Havlir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0, Tiffany%Grimes%NULL%0, Peng%Li%NULL%0, Matthew%Might%NULL%0, Fernando%Ovalle%NULL%0, Anath%Shalev%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Joseph E.%Ebinger%NULL%0, Natalie%Achamallah%NULL%1, Hongwei%Ji%NULL%1, Brian L.%Claggett%NULL%1, Nancy%Sun%NULL%1, Patrick%Botting%NULL%1, Trevor-Trung%Nguyen%NULL%1, Eric%Luong%NULL%1, Elizabeth H.%Kim%NULL%1, Eunice%Park%NULL%1, Yunxian%Liu%NULL%1, Ryan%Rosenberry%NULL%1, Yuri%Matusov%NULL%1, Steven%Zhao%NULL%1, Isabel%Pedraza%NULL%1, Tanzira%Zaman%NULL%1, Michael%Thompson%NULL%1, Koen%Raedschelders%NULL%1, Anders H.%Berg%NULL%2, Anders H.%Berg%NULL%0, Jonathan D.%Grein%NULL%1, Paul W.%Noble%NULL%1, Sumeet S.%Chugh%NULL%1, C. Noel%Bairey Merz%NULL%1, Eduardo%Marbán%NULL%1, Jennifer E.%Van Eyk%NULL%1, Scott D.%Solomon%NULL%1, Christine M.%Albert%NULL%1, Peter%Chen%NULL%1, Susan%Cheng%NULL%3, Yu Ru%Kou%NULL%0, Yu Ru%Kou%NULL%0, Yu Ru%Kou%NULL%0, Susan%Cheng%biodatacore@cshs.org%0, Susan%Cheng%biodatacore@cshs.org%0, Yu Ru%Kou%NULL%0, Yu Ru%Kou%NULL%0, Yu Ru%Kou%NULL%0, Yu Ru%Kou%NULL%0, Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sascha%Ellington%NULL%0, Penelope%Strid%NULL%1, Van T.%Tong%NULL%1, Kate%Woodworth%NULL%1, Romeo R.%Galang%NULL%1, Laura D.%Zambrano%NULL%1, John%Nahabedian%NULL%1, Kayla%Anderson%NULL%1, Suzanne M.%Gilboa%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This retrospective analysis from 5 Maryland and Washington, DC area hospitals determines factors on hospital admission predictive of severe disease or death from COVID-19 and describes patient trajectories and outcomes categorized using the WHO COVID-19 disease severity scale.
+</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0, Jacob%Fiksel%NULL%4, Jacob%Fiksel%NULL%0, John%Muschelli%NULL%4, John%Muschelli%NULL%0, Matthew L.%Robinson%NULL%4, Matthew L.%Robinson%NULL%0, Masoud%Rouhizadeh%NULL%4, Masoud%Rouhizadeh%NULL%0, Jamie%Perin%NULL%4, Jamie%Perin%NULL%0, Grant%Schumock%NULL%4, Grant%Schumock%NULL%0, Paul%Nagy%NULL%4, Paul%Nagy%NULL%0, Josh H.%Gray%NULL%4, Josh H.%Gray%NULL%0, Harsha%Malapati%NULL%4, Harsha%Malapati%NULL%0, Mariam%Ghobadi-Krueger%NULL%4, Mariam%Ghobadi-Krueger%NULL%0, Timothy M.%Niessen%NULL%2, Bo Soo%Kim%NULL%2, Peter M.%Hill%NULL%2, M. Shafeeq%Ahmed%NULL%2, Eric D.%Dobkin%NULL%2, Renee%Blanding%NULL%2, Jennifer%Abele%NULL%2, Bonnie%Woods%NULL%2, Kenneth%Harkness%NULL%2, David R.%Thiemann%NULL%2, Mary G.%Bowring%NULL%2, Aalok B.%Shah%NULL%4, Aalok B.%Shah%NULL%0, Mei-Cheng%Wang%NULL%2, Karen%Bandeen-Roche%NULL%2, Antony%Rosen%NULL%2, Scott L.%Zeger%NULL%4, Scott L.%Zeger%NULL%0, Amita%Gupta%NULL%2]</t>
   </si>
 </sst>
 </file>
@@ -5537,25 +6052,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>1461</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>91</v>
@@ -5575,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>1462</v>
+        <v>1584</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -5587,10 +6102,10 @@
         <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="4">
@@ -5607,7 +6122,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>1463</v>
+        <v>1586</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
@@ -5619,10 +6134,10 @@
         <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="5">
@@ -5639,7 +6154,7 @@
         <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>1464</v>
+        <v>1588</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -5651,10 +6166,10 @@
         <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="6">
@@ -5665,28 +6180,28 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>1590</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>1591</v>
       </c>
       <c r="E6" t="s">
-        <v>1465</v>
+        <v>1592</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>1593</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="7">
@@ -5697,25 +6212,25 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>1466</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
         <v>91</v>
@@ -5735,7 +6250,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>1467</v>
+        <v>1595</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -5747,10 +6262,10 @@
         <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="9">
@@ -5761,25 +6276,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>1468</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>91</v>
@@ -5793,25 +6308,25 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>1469</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
         <v>91</v>
@@ -5831,7 +6346,7 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>1470</v>
+        <v>1597</v>
       </c>
       <c r="F11" t="s">
         <v>118</v>
@@ -5843,10 +6358,10 @@
         <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="12">
@@ -5863,7 +6378,7 @@
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>1471</v>
+        <v>1599</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
@@ -5875,10 +6390,10 @@
         <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="13">
@@ -5895,7 +6410,7 @@
         <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>1472</v>
+        <v>1600</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -5907,10 +6422,10 @@
         <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="14">
@@ -5921,25 +6436,25 @@
         <v>44067.0</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>1473</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>1086</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>91</v>
@@ -5959,7 +6474,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>1474</v>
+        <v>1602</v>
       </c>
       <c r="F15" t="s">
         <v>136</v>
@@ -5971,10 +6486,10 @@
         <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="16">
@@ -5991,7 +6506,7 @@
         <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>1475</v>
+        <v>1604</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -6003,10 +6518,10 @@
         <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="17">
@@ -6017,25 +6532,25 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>1476</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>91</v>
@@ -6052,10 +6567,10 @@
         <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>739</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>1477</v>
+        <v>1605</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
@@ -6067,10 +6582,10 @@
         <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>1091</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="19">
@@ -6087,7 +6602,7 @@
         <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>1478</v>
+        <v>1607</v>
       </c>
       <c r="F19" t="s">
         <v>153</v>
@@ -6099,10 +6614,10 @@
         <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="20">
@@ -6113,25 +6628,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>1479</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
         <v>91</v>
@@ -6148,10 +6663,10 @@
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>743</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>1480</v>
+        <v>1608</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
@@ -6163,10 +6678,10 @@
         <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>1091</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="22">
@@ -6180,10 +6695,10 @@
         <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>1610</v>
       </c>
       <c r="E22" t="s">
-        <v>1481</v>
+        <v>1611</v>
       </c>
       <c r="F22" t="s">
         <v>166</v>
@@ -6195,10 +6710,10 @@
         <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>1091</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="23">
@@ -6215,7 +6730,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>1482</v>
+        <v>1613</v>
       </c>
       <c r="F23" t="s">
         <v>170</v>
@@ -6227,10 +6742,10 @@
         <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="24">
@@ -6241,28 +6756,28 @@
         <v>43972.0</v>
       </c>
       <c r="C24" t="s">
-        <v>543</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>847</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>545</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>1197</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
         <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>1198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -6279,7 +6794,7 @@
         <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>1483</v>
+        <v>1615</v>
       </c>
       <c r="F25" t="s">
         <v>175</v>
@@ -6291,10 +6806,10 @@
         <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="26">
@@ -6308,10 +6823,10 @@
         <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>1617</v>
       </c>
       <c r="E26" t="s">
-        <v>1484</v>
+        <v>1618</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -6323,10 +6838,10 @@
         <v>181</v>
       </c>
       <c r="I26" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="27">
@@ -6343,7 +6858,7 @@
         <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>1485</v>
+        <v>1620</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -6355,10 +6870,10 @@
         <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="28">
@@ -6375,7 +6890,7 @@
         <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>1486</v>
+        <v>1621</v>
       </c>
       <c r="F28" t="s">
         <v>190</v>
@@ -6387,10 +6902,10 @@
         <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="29">
@@ -6407,7 +6922,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1487</v>
+        <v>1623</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -6419,10 +6934,10 @@
         <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="30">
@@ -6433,25 +6948,25 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>1488</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
         <v>91</v>
@@ -6465,28 +6980,28 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>1625</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>1626</v>
       </c>
       <c r="E31" t="s">
-        <v>1489</v>
+        <v>1627</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>1628</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="32">
@@ -6497,28 +7012,28 @@
         <v>43962.0</v>
       </c>
       <c r="C32" t="s">
-        <v>554</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>855</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>545</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>1197</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
         <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>1207</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -6532,10 +7047,10 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>756</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>1490</v>
+        <v>1629</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -6547,10 +7062,10 @@
         <v>207</v>
       </c>
       <c r="I33" t="s">
-        <v>1091</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="34">
@@ -6567,7 +7082,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>1491</v>
+        <v>1630</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -6579,10 +7094,10 @@
         <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>91</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="35">
@@ -6596,10 +7111,10 @@
         <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>759</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>1492</v>
+        <v>1632</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
@@ -6611,10 +7126,10 @@
         <v>217</v>
       </c>
       <c r="I35" t="s">
-        <v>1091</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="36">
@@ -6631,7 +7146,7 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>1493</v>
+        <v>1633</v>
       </c>
       <c r="F36" t="s">
         <v>221</v>
@@ -6643,10 +7158,10 @@
         <v>222</v>
       </c>
       <c r="I36" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="37">
@@ -6663,7 +7178,7 @@
         <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>1494</v>
+        <v>1634</v>
       </c>
       <c r="F37" t="s">
         <v>226</v>
@@ -6675,10 +7190,10 @@
         <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="38">
@@ -6692,10 +7207,10 @@
         <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>1635</v>
       </c>
       <c r="E38" t="s">
-        <v>1495</v>
+        <v>1636</v>
       </c>
       <c r="F38" t="s">
         <v>231</v>
@@ -6707,10 +7222,10 @@
         <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="39">
@@ -6727,7 +7242,7 @@
         <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>1496</v>
+        <v>1638</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
@@ -6739,10 +7254,10 @@
         <v>186</v>
       </c>
       <c r="I39" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="40">
@@ -6756,10 +7271,10 @@
         <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>1639</v>
       </c>
       <c r="E40" t="s">
-        <v>1497</v>
+        <v>1640</v>
       </c>
       <c r="F40" t="s">
         <v>239</v>
@@ -6771,10 +7286,10 @@
         <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="41">
@@ -6785,25 +7300,25 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>1498</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>1071</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s">
         <v>91</v>
@@ -6823,7 +7338,7 @@
         <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>1499</v>
+        <v>1642</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
@@ -6835,10 +7350,10 @@
         <v>249</v>
       </c>
       <c r="I42" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s">
-        <v>91</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="43">
@@ -6855,7 +7370,7 @@
         <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>1500</v>
+        <v>1643</v>
       </c>
       <c r="F43" t="s">
         <v>253</v>
@@ -6867,10 +7382,10 @@
         <v>254</v>
       </c>
       <c r="I43" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="44">
@@ -6887,7 +7402,7 @@
         <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>1501</v>
+        <v>1645</v>
       </c>
       <c r="F44" t="s">
         <v>258</v>
@@ -6899,10 +7414,10 @@
         <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>1082</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s">
-        <v>91</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="45">
@@ -6919,7 +7434,7 @@
         <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>1502</v>
+        <v>1646</v>
       </c>
       <c r="F45" t="s">
         <v>262</v>
@@ -6931,10 +7446,10 @@
         <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="46">
@@ -6951,7 +7466,7 @@
         <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>1503</v>
+        <v>1647</v>
       </c>
       <c r="F46" t="s">
         <v>266</v>
@@ -6963,10 +7478,10 @@
         <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="47">
@@ -6983,7 +7498,7 @@
         <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>1504</v>
+        <v>1649</v>
       </c>
       <c r="F47" t="s">
         <v>270</v>
@@ -6995,10 +7510,10 @@
         <v>271</v>
       </c>
       <c r="I47" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="48">
@@ -7015,7 +7530,7 @@
         <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>1505</v>
+        <v>1650</v>
       </c>
       <c r="F48" t="s">
         <v>274</v>
@@ -7027,10 +7542,10 @@
         <v>94</v>
       </c>
       <c r="I48" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="49">
@@ -7044,10 +7559,10 @@
         <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>1651</v>
       </c>
       <c r="E49" t="s">
-        <v>1506</v>
+        <v>1652</v>
       </c>
       <c r="F49" t="s">
         <v>278</v>
@@ -7059,10 +7574,10 @@
         <v>94</v>
       </c>
       <c r="I49" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="50">
@@ -7079,7 +7594,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>1507</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
         <v>88</v>
@@ -7091,10 +7606,10 @@
         <v>89</v>
       </c>
       <c r="I50" t="s">
-        <v>1073</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
-        <v>91</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="51">
